--- a/Calendario2019/Presentaciones/Semana4/EjercicioTema9.1_Liz.xlsx
+++ b/Calendario2019/Presentaciones/Semana4/EjercicioTema9.1_Liz.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l00614578\Documents\C_Pensamiento\PensamientoC\Calendario2019\Presentaciones\Semana4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3035CFC9-59D9-4CD9-BAD1-FE25B931B769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE91493-CB30-447A-A72E-9054461FD23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colaboradores" sheetId="1" r:id="rId1"/>
     <sheet name="Ejercicio" sheetId="2" r:id="rId2"/>
     <sheet name="Fecha de nacimiento" sheetId="3" r:id="rId3"/>
+    <sheet name="Nombre" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Colaboradores!$A$1:$I$226</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Fecha de nacimiento'!$A$1:$M$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Nombre!$A$1:$L$226</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4138" uniqueCount="734">
   <si>
     <t xml:space="preserve">RFC </t>
   </si>
@@ -2203,6 +2205,42 @@
   </si>
   <si>
     <t>Fecha de nacimiento (DIA / MES / AÑO)</t>
+  </si>
+  <si>
+    <t>APELLIDO PATERNO</t>
+  </si>
+  <si>
+    <t>APELLIDO MATERNO</t>
+  </si>
+  <si>
+    <t>DELRIO CAMPOS MANUEL</t>
+  </si>
+  <si>
+    <t>PEREZ TORRE ESCAMILLA</t>
+  </si>
+  <si>
+    <t>SOTO LOYA LUIS</t>
+  </si>
+  <si>
+    <t>PRADO HERNÁNDEZ CRISOSTOMO</t>
+  </si>
+  <si>
+    <t>LUZ QUEVEDO DANIEL</t>
+  </si>
+  <si>
+    <t>CASARRUBIAS LUZ VICTOR</t>
+  </si>
+  <si>
+    <t>SÁNCHEZ TORRE ITZEL</t>
+  </si>
+  <si>
+    <t>DEJESUS CRISOSTOMO LORENA</t>
+  </si>
+  <si>
+    <t>SUAREZ ARROYO LAURA</t>
+  </si>
+  <si>
+    <t>NIETO LUZ QUEVEDO</t>
   </si>
 </sst>
 </file>
@@ -2593,7 +2631,7 @@
   <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,7 +2829,7 @@
         <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>591</v>
+        <v>724</v>
       </c>
       <c r="D7" t="s">
         <v>656</v>
@@ -3487,7 +3525,7 @@
         <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>602</v>
+        <v>725</v>
       </c>
       <c r="D31" t="s">
         <v>654</v>
@@ -4531,7 +4569,7 @@
         <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>639</v>
+        <v>726</v>
       </c>
       <c r="D67" t="s">
         <v>661</v>
@@ -4618,7 +4656,7 @@
         <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>458</v>
+        <v>727</v>
       </c>
       <c r="D70" t="s">
         <v>661</v>
@@ -5778,7 +5816,7 @@
         <v>151</v>
       </c>
       <c r="C110" t="s">
-        <v>569</v>
+        <v>731</v>
       </c>
       <c r="D110" t="s">
         <v>654</v>
@@ -5952,7 +5990,7 @@
         <v>217</v>
       </c>
       <c r="C116" t="s">
-        <v>622</v>
+        <v>728</v>
       </c>
       <c r="D116" t="s">
         <v>667</v>
@@ -6039,7 +6077,7 @@
         <v>237</v>
       </c>
       <c r="C119" t="s">
-        <v>632</v>
+        <v>729</v>
       </c>
       <c r="D119" t="s">
         <v>668</v>
@@ -6793,7 +6831,7 @@
         <v>177</v>
       </c>
       <c r="C145" t="s">
-        <v>641</v>
+        <v>730</v>
       </c>
       <c r="D145" t="s">
         <v>659</v>
@@ -8330,7 +8368,7 @@
         <v>114</v>
       </c>
       <c r="C198" t="s">
-        <v>580</v>
+        <v>732</v>
       </c>
       <c r="D198" t="s">
         <v>652</v>
@@ -8533,7 +8571,7 @@
         <v>379</v>
       </c>
       <c r="C205" t="s">
-        <v>528</v>
+        <v>733</v>
       </c>
       <c r="D205" t="s">
         <v>654</v>
@@ -8794,7 +8832,7 @@
         <v>94</v>
       </c>
       <c r="C214" t="s">
-        <v>569</v>
+        <v>731</v>
       </c>
       <c r="D214" t="s">
         <v>658</v>
@@ -9577,7 +9615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA87254-4E6B-426E-AC75-FBE94CA22459}">
   <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -19765,4 +19803,8394 @@
   <autoFilter ref="A1:M226" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808D66FB-9112-4C80-BD4C-42309CE1871F}">
+  <dimension ref="A1:L226"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D2" t="str">
+        <f>LEFT(C2,(FIND(" ", C2,1)-1))</f>
+        <v>CABRERA</v>
+      </c>
+      <c r="E2" t="str">
+        <f>MID(C2,FIND(" ",C2)+1,256)</f>
+        <v>ADAME MIGUEL ANGEL</v>
+      </c>
+      <c r="G2" t="s">
+        <v>651</v>
+      </c>
+      <c r="H2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I2" s="1">
+        <v>40330</v>
+      </c>
+      <c r="J2" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K2" t="s">
+        <v>424</v>
+      </c>
+      <c r="L2">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">LEFT(C3,(FIND(" ", C3,1)-1))</f>
+        <v>HERNANDEZ</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="1">MID(C3,FIND(" ",C3)+1,256)</f>
+        <v>ADAME ALDO MANUEL</v>
+      </c>
+      <c r="G3" t="s">
+        <v>652</v>
+      </c>
+      <c r="H3" t="s">
+        <v>422</v>
+      </c>
+      <c r="I3" s="1">
+        <v>40330</v>
+      </c>
+      <c r="J3" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K3" t="s">
+        <v>424</v>
+      </c>
+      <c r="L3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>GUTIERREZ</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>ADAME EMELIA CAROLINA</v>
+      </c>
+      <c r="G4" t="s">
+        <v>653</v>
+      </c>
+      <c r="H4" t="s">
+        <v>422</v>
+      </c>
+      <c r="I4" s="1">
+        <v>40330</v>
+      </c>
+      <c r="J4" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K4" t="s">
+        <v>645</v>
+      </c>
+      <c r="L4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>GUTIERREZ</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>ADAME KARLA JULIETA</v>
+      </c>
+      <c r="G5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H5" t="s">
+        <v>422</v>
+      </c>
+      <c r="I5" s="1">
+        <v>40330</v>
+      </c>
+      <c r="J5" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K5" t="s">
+        <v>646</v>
+      </c>
+      <c r="L5">
+        <v>7752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>CALDERON</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>MORENO SANTIAGO</v>
+      </c>
+      <c r="G6" t="s">
+        <v>656</v>
+      </c>
+      <c r="H6" t="s">
+        <v>422</v>
+      </c>
+      <c r="I6" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J6" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K6" t="s">
+        <v>425</v>
+      </c>
+      <c r="L6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>DELRIO</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>CAMPOS MANUEL</v>
+      </c>
+      <c r="G7" t="s">
+        <v>656</v>
+      </c>
+      <c r="H7" t="s">
+        <v>422</v>
+      </c>
+      <c r="I7" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J7" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L7">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>589</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>AGUIRRE</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>BRITO ALMA ROSA</v>
+      </c>
+      <c r="G8" t="s">
+        <v>657</v>
+      </c>
+      <c r="H8" t="s">
+        <v>422</v>
+      </c>
+      <c r="I8" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J8" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K8" t="s">
+        <v>425</v>
+      </c>
+      <c r="L8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" t="s">
+        <v>604</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>CORTES</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>ESTRADA LILIANA SELENE</v>
+      </c>
+      <c r="G9" t="s">
+        <v>656</v>
+      </c>
+      <c r="H9" t="s">
+        <v>422</v>
+      </c>
+      <c r="I9" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J9" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K9" t="s">
+        <v>423</v>
+      </c>
+      <c r="L9">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" t="s">
+        <v>479</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>CORTES</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>ESTRADA LILIANA</v>
+      </c>
+      <c r="G10" t="s">
+        <v>654</v>
+      </c>
+      <c r="H10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I10" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J10" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K10" t="s">
+        <v>424</v>
+      </c>
+      <c r="L10">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" t="s">
+        <v>605</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>RIVERO</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>ESTRADA MIRIAM DAHINA</v>
+      </c>
+      <c r="G11" t="s">
+        <v>651</v>
+      </c>
+      <c r="H11" t="s">
+        <v>422</v>
+      </c>
+      <c r="I11" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J11" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K11" t="s">
+        <v>423</v>
+      </c>
+      <c r="L11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>633</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>CRUZ</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>VAZQUEZ ALEJO MARCELINO</v>
+      </c>
+      <c r="G12" t="s">
+        <v>658</v>
+      </c>
+      <c r="H12" t="s">
+        <v>422</v>
+      </c>
+      <c r="I12" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J12" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K12" t="s">
+        <v>424</v>
+      </c>
+      <c r="L12">
+        <v>7752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" t="s">
+        <v>492</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>ALVAREZ</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>MORALES ALONDRA</v>
+      </c>
+      <c r="G13" t="s">
+        <v>656</v>
+      </c>
+      <c r="H13" t="s">
+        <v>426</v>
+      </c>
+      <c r="I13" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J13" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K13" t="s">
+        <v>644</v>
+      </c>
+      <c r="L13">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" t="s">
+        <v>472</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>CASTILLEJA</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>DUARTE CARLOS</v>
+      </c>
+      <c r="G14" t="s">
+        <v>659</v>
+      </c>
+      <c r="H14" t="s">
+        <v>422</v>
+      </c>
+      <c r="I14" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J14" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K14" t="s">
+        <v>424</v>
+      </c>
+      <c r="L14">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C15" t="s">
+        <v>513</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>CARBAJAL</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>PALACIOS LUIS</v>
+      </c>
+      <c r="G15" t="s">
+        <v>656</v>
+      </c>
+      <c r="H15" t="s">
+        <v>422</v>
+      </c>
+      <c r="I15" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J15" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K15" t="s">
+        <v>424</v>
+      </c>
+      <c r="L15">
+        <v>8774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>CORTES</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>ESTRADA LILIANA</v>
+      </c>
+      <c r="G16" t="s">
+        <v>659</v>
+      </c>
+      <c r="H16" t="s">
+        <v>422</v>
+      </c>
+      <c r="I16" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J16" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K16" t="s">
+        <v>424</v>
+      </c>
+      <c r="L16">
+        <v>8958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C17" t="s">
+        <v>532</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>BERNABE</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>RAMIREZ NAYELI</v>
+      </c>
+      <c r="G17" t="s">
+        <v>660</v>
+      </c>
+      <c r="H17" t="s">
+        <v>422</v>
+      </c>
+      <c r="I17" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J17" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K17" t="s">
+        <v>424</v>
+      </c>
+      <c r="L17">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>594</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>AVILA</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>CASTAÑEDA DALIA ZARET</v>
+      </c>
+      <c r="G18" t="s">
+        <v>654</v>
+      </c>
+      <c r="H18" t="s">
+        <v>422</v>
+      </c>
+      <c r="I18" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J18" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K18" t="s">
+        <v>424</v>
+      </c>
+      <c r="L18">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" t="s">
+        <v>460</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>DOMINGUEZ</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>CONTRERAS GIULIANA</v>
+      </c>
+      <c r="G19" t="s">
+        <v>658</v>
+      </c>
+      <c r="H19" t="s">
+        <v>422</v>
+      </c>
+      <c r="I19" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J19" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K19" t="s">
+        <v>424</v>
+      </c>
+      <c r="L19">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>GONZALEZ</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>ESPINOZA BRENDA</v>
+      </c>
+      <c r="G20" t="s">
+        <v>656</v>
+      </c>
+      <c r="H20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I20" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J20" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K20" t="s">
+        <v>424</v>
+      </c>
+      <c r="L20">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" t="s">
+        <v>674</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>RAMIREZ</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>LOPEZ NANCY GUADALUPE</v>
+      </c>
+      <c r="G21" t="s">
+        <v>658</v>
+      </c>
+      <c r="H21" t="s">
+        <v>426</v>
+      </c>
+      <c r="I21" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J21" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K21" t="s">
+        <v>644</v>
+      </c>
+      <c r="L21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>VAZQUEZ</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>BAILON IOEL</v>
+      </c>
+      <c r="G22" t="s">
+        <v>656</v>
+      </c>
+      <c r="H22" t="s">
+        <v>422</v>
+      </c>
+      <c r="I22" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J22" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K22" t="s">
+        <v>424</v>
+      </c>
+      <c r="L22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>553</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>ALCANTARA</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>BASILIO URIEL GERARDO</v>
+      </c>
+      <c r="G23" t="s">
+        <v>652</v>
+      </c>
+      <c r="H23" t="s">
+        <v>422</v>
+      </c>
+      <c r="I23" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J23" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K23" t="s">
+        <v>424</v>
+      </c>
+      <c r="L23">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>555</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>HERNANDEZ</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>CARBAJAL JOSE LUIS</v>
+      </c>
+      <c r="G24" t="s">
+        <v>658</v>
+      </c>
+      <c r="H24" t="s">
+        <v>422</v>
+      </c>
+      <c r="I24" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J24" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K24" t="s">
+        <v>424</v>
+      </c>
+      <c r="L24">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>438</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>BELLO</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>CORDERO RUBEN</v>
+      </c>
+      <c r="G25" t="s">
+        <v>658</v>
+      </c>
+      <c r="H25" t="s">
+        <v>422</v>
+      </c>
+      <c r="I25" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J25" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K25" t="s">
+        <v>424</v>
+      </c>
+      <c r="L25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>442</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>DELGADO</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>GARCIA IGNACIO</v>
+      </c>
+      <c r="G26" t="s">
+        <v>657</v>
+      </c>
+      <c r="H26" t="s">
+        <v>422</v>
+      </c>
+      <c r="I26" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J26" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K26" t="s">
+        <v>424</v>
+      </c>
+      <c r="L26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>446</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>GUTIERREZ</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>MARTINEZ FRANCISCO</v>
+      </c>
+      <c r="G27" t="s">
+        <v>652</v>
+      </c>
+      <c r="H27" t="s">
+        <v>422</v>
+      </c>
+      <c r="I27" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J27" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K27" t="s">
+        <v>424</v>
+      </c>
+      <c r="L27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>561</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>TAQUILLO</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>PEREZ MIGUEL ANGEL</v>
+      </c>
+      <c r="G28" t="s">
+        <v>658</v>
+      </c>
+      <c r="H28" t="s">
+        <v>422</v>
+      </c>
+      <c r="I28" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J28" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K28" t="s">
+        <v>424</v>
+      </c>
+      <c r="L28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>592</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>GUERRERO</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>CANTORAN JULIO CESAR</v>
+      </c>
+      <c r="G29" t="s">
+        <v>657</v>
+      </c>
+      <c r="H29" t="s">
+        <v>422</v>
+      </c>
+      <c r="I29" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J29" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K29" t="s">
+        <v>424</v>
+      </c>
+      <c r="L29">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>570</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>TEXTA</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>AÑORVE OLINSSER JONATHAN</v>
+      </c>
+      <c r="G30" t="s">
+        <v>654</v>
+      </c>
+      <c r="H30" t="s">
+        <v>422</v>
+      </c>
+      <c r="I30" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J30" s="1">
+        <v>40390</v>
+      </c>
+      <c r="K30" t="s">
+        <v>424</v>
+      </c>
+      <c r="L30">
+        <v>11568.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>725</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>PEREZ</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>TORRE ESCAMILLA</v>
+      </c>
+      <c r="G31" t="s">
+        <v>654</v>
+      </c>
+      <c r="H31" t="s">
+        <v>422</v>
+      </c>
+      <c r="I31" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J31" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K31" t="s">
+        <v>424</v>
+      </c>
+      <c r="L31">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>318</v>
+      </c>
+      <c r="B32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" t="s">
+        <v>498</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>ARROYO</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>NAVA CELESTINO</v>
+      </c>
+      <c r="G32" t="s">
+        <v>652</v>
+      </c>
+      <c r="H32" t="s">
+        <v>422</v>
+      </c>
+      <c r="I32" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J32" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K32" t="s">
+        <v>424</v>
+      </c>
+      <c r="L32">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>384</v>
+      </c>
+      <c r="B33" t="s">
+        <v>385</v>
+      </c>
+      <c r="C33" t="s">
+        <v>531</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>ALCOCER</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>RAMIREZ HUMBERTO</v>
+      </c>
+      <c r="G33" t="s">
+        <v>654</v>
+      </c>
+      <c r="H33" t="s">
+        <v>422</v>
+      </c>
+      <c r="I33" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J33" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K33" t="s">
+        <v>424</v>
+      </c>
+      <c r="L33">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" t="s">
+        <v>616</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>AVILA</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>PASTOR EMIR ALEJANDRO</v>
+      </c>
+      <c r="G34" t="s">
+        <v>654</v>
+      </c>
+      <c r="H34" t="s">
+        <v>422</v>
+      </c>
+      <c r="I34" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J34" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K34" t="s">
+        <v>424</v>
+      </c>
+      <c r="L34">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" t="s">
+        <v>463</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>GALICIA</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>CORTEZ MIGUEL</v>
+      </c>
+      <c r="G35" t="s">
+        <v>654</v>
+      </c>
+      <c r="H35" t="s">
+        <v>422</v>
+      </c>
+      <c r="I35" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J35" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K35" t="s">
+        <v>424</v>
+      </c>
+      <c r="L35">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" t="s">
+        <v>467</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>VILLEGAS</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>CRUZ ANTONIO</v>
+      </c>
+      <c r="G36" t="s">
+        <v>654</v>
+      </c>
+      <c r="H36" t="s">
+        <v>426</v>
+      </c>
+      <c r="I36" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J36" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K36" t="s">
+        <v>427</v>
+      </c>
+      <c r="L36">
+        <v>12144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>408</v>
+      </c>
+      <c r="B37" t="s">
+        <v>409</v>
+      </c>
+      <c r="C37" t="s">
+        <v>543</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>GOMEZ</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>RIOS JOSE</v>
+      </c>
+      <c r="G37" t="s">
+        <v>654</v>
+      </c>
+      <c r="H37" t="s">
+        <v>422</v>
+      </c>
+      <c r="I37" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J37" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K37" t="s">
+        <v>424</v>
+      </c>
+      <c r="L37">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" t="s">
+        <v>468</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>ROMERO</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>CUEVAS ARTURO</v>
+      </c>
+      <c r="G38" t="s">
+        <v>654</v>
+      </c>
+      <c r="H38" t="s">
+        <v>426</v>
+      </c>
+      <c r="I38" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J38" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K38" t="s">
+        <v>644</v>
+      </c>
+      <c r="L38">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>312</v>
+      </c>
+      <c r="B39" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" t="s">
+        <v>496</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>GARCIA</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>MORENO VICENTE</v>
+      </c>
+      <c r="G39" t="s">
+        <v>654</v>
+      </c>
+      <c r="H39" t="s">
+        <v>426</v>
+      </c>
+      <c r="I39" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J39" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K39" t="s">
+        <v>644</v>
+      </c>
+      <c r="L39">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>402</v>
+      </c>
+      <c r="B40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C40" t="s">
+        <v>540</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>VERDUZCO</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>REYES JAVIER</v>
+      </c>
+      <c r="G40" t="s">
+        <v>652</v>
+      </c>
+      <c r="H40" t="s">
+        <v>426</v>
+      </c>
+      <c r="I40" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J40" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K40" t="s">
+        <v>644</v>
+      </c>
+      <c r="L40">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>593</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>CERVANTES</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>CARDENAS ABRAHAM DANIEL</v>
+      </c>
+      <c r="G41" t="s">
+        <v>654</v>
+      </c>
+      <c r="H41" t="s">
+        <v>422</v>
+      </c>
+      <c r="I41" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J41" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K41" t="s">
+        <v>424</v>
+      </c>
+      <c r="L41">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>376</v>
+      </c>
+      <c r="B42" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" t="s">
+        <v>527</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>ZARATE</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>PINEDA INES</v>
+      </c>
+      <c r="G42" t="s">
+        <v>661</v>
+      </c>
+      <c r="H42" t="s">
+        <v>422</v>
+      </c>
+      <c r="I42" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J42" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K42" t="s">
+        <v>424</v>
+      </c>
+      <c r="L42">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>ATRISCO</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>NAVA JOSE ROSARIO</v>
+      </c>
+      <c r="G43" t="s">
+        <v>661</v>
+      </c>
+      <c r="H43" t="s">
+        <v>422</v>
+      </c>
+      <c r="I43" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J43" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K43" t="s">
+        <v>424</v>
+      </c>
+      <c r="L43">
+        <v>16133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" t="s">
+        <v>606</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>VEGA</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>ESTRADA MARIA ELENA</v>
+      </c>
+      <c r="G44" t="s">
+        <v>654</v>
+      </c>
+      <c r="H44" t="s">
+        <v>422</v>
+      </c>
+      <c r="I44" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J44" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K44" t="s">
+        <v>424</v>
+      </c>
+      <c r="L44">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>449</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>UGALDE</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>RIVERA JESUS</v>
+      </c>
+      <c r="G45" t="s">
+        <v>661</v>
+      </c>
+      <c r="H45" t="s">
+        <v>422</v>
+      </c>
+      <c r="I45" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J45" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K45" t="s">
+        <v>424</v>
+      </c>
+      <c r="L45">
+        <v>18313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>332</v>
+      </c>
+      <c r="B46" t="s">
+        <v>333</v>
+      </c>
+      <c r="C46" t="s">
+        <v>505</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>CARMONA</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>OLEA ANDRES</v>
+      </c>
+      <c r="G46" t="s">
+        <v>661</v>
+      </c>
+      <c r="H46" t="s">
+        <v>426</v>
+      </c>
+      <c r="I46" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J46" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K46" t="s">
+        <v>644</v>
+      </c>
+      <c r="L46">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>410</v>
+      </c>
+      <c r="B47" t="s">
+        <v>411</v>
+      </c>
+      <c r="C47" t="s">
+        <v>544</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>CASTAÑON</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>RIVAS YASMIN</v>
+      </c>
+      <c r="G47" t="s">
+        <v>661</v>
+      </c>
+      <c r="H47" t="s">
+        <v>426</v>
+      </c>
+      <c r="I47" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J47" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K47" t="s">
+        <v>427</v>
+      </c>
+      <c r="L47">
+        <v>20755</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" t="s">
+        <v>620</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>RODRIGUEZ</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>PERALTA LEYDI OLIVIA</v>
+      </c>
+      <c r="G48" t="s">
+        <v>661</v>
+      </c>
+      <c r="H48" t="s">
+        <v>422</v>
+      </c>
+      <c r="I48" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J48" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K48" t="s">
+        <v>424</v>
+      </c>
+      <c r="L48">
+        <v>21236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>579</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>ALEMAN</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>APONTE ETHEL ARACELI</v>
+      </c>
+      <c r="G49" t="s">
+        <v>661</v>
+      </c>
+      <c r="H49" t="s">
+        <v>422</v>
+      </c>
+      <c r="I49" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J49" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K49" t="s">
+        <v>424</v>
+      </c>
+      <c r="L49">
+        <v>23488</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" t="s">
+        <v>631</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>CASTAÑON</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>RIVAS YASMIN DAYREN</v>
+      </c>
+      <c r="G50" t="s">
+        <v>661</v>
+      </c>
+      <c r="H50" t="s">
+        <v>422</v>
+      </c>
+      <c r="I50" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J50" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K50" t="s">
+        <v>424</v>
+      </c>
+      <c r="L50">
+        <v>23488</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>322</v>
+      </c>
+      <c r="B51" t="s">
+        <v>323</v>
+      </c>
+      <c r="C51" t="s">
+        <v>500</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>ROMERO</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v>NAVA JANET</v>
+      </c>
+      <c r="G51" t="s">
+        <v>661</v>
+      </c>
+      <c r="H51" t="s">
+        <v>426</v>
+      </c>
+      <c r="I51" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J51" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K51" t="s">
+        <v>427</v>
+      </c>
+      <c r="L51">
+        <v>23693</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>340</v>
+      </c>
+      <c r="B52" t="s">
+        <v>341</v>
+      </c>
+      <c r="C52" t="s">
+        <v>509</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>GLASE</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>ORTIZ MARIA</v>
+      </c>
+      <c r="G52" t="s">
+        <v>661</v>
+      </c>
+      <c r="H52" t="s">
+        <v>422</v>
+      </c>
+      <c r="I52" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J52" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K52" t="s">
+        <v>427</v>
+      </c>
+      <c r="L52">
+        <v>23693</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" t="s">
+        <v>614</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>TEMIQUELT</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>ORTIZ JOSE ALFREDO</v>
+      </c>
+      <c r="G53" t="s">
+        <v>661</v>
+      </c>
+      <c r="H53" t="s">
+        <v>422</v>
+      </c>
+      <c r="I53" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J53" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K53" t="s">
+        <v>424</v>
+      </c>
+      <c r="L53">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>380</v>
+      </c>
+      <c r="B54" t="s">
+        <v>381</v>
+      </c>
+      <c r="C54" t="s">
+        <v>529</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>RODRIGUEZ</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>QUEZADA JOSE</v>
+      </c>
+      <c r="G54" t="s">
+        <v>661</v>
+      </c>
+      <c r="H54" t="s">
+        <v>422</v>
+      </c>
+      <c r="I54" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J54" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K54" t="s">
+        <v>424</v>
+      </c>
+      <c r="L54">
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" t="s">
+        <v>469</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>ANAYA</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>DEL CARMEN</v>
+      </c>
+      <c r="G55" t="s">
+        <v>661</v>
+      </c>
+      <c r="H55" t="s">
+        <v>422</v>
+      </c>
+      <c r="I55" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J55" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K55" t="s">
+        <v>424</v>
+      </c>
+      <c r="L55">
+        <v>26552</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>276</v>
+      </c>
+      <c r="B56" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" t="s">
+        <v>478</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>DONAGUSTIN</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v>ESTEBAN REIMUNDO</v>
+      </c>
+      <c r="G56" t="s">
+        <v>661</v>
+      </c>
+      <c r="H56" t="s">
+        <v>422</v>
+      </c>
+      <c r="I56" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J56" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K56" t="s">
+        <v>645</v>
+      </c>
+      <c r="L56">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" t="s">
+        <v>588</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>GARCIA</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>BRAVO SAUL EDGARDO</v>
+      </c>
+      <c r="G57" t="s">
+        <v>661</v>
+      </c>
+      <c r="H57" t="s">
+        <v>422</v>
+      </c>
+      <c r="I57" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J57" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K57" t="s">
+        <v>645</v>
+      </c>
+      <c r="L57">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s">
+        <v>595</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>HERNANDEZ</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>CASTREJON ANDREA JAZMIN</v>
+      </c>
+      <c r="G58" t="s">
+        <v>661</v>
+      </c>
+      <c r="H58" t="s">
+        <v>422</v>
+      </c>
+      <c r="I58" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J58" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K58" t="s">
+        <v>645</v>
+      </c>
+      <c r="L58">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>200</v>
+      </c>
+      <c r="B59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" t="s">
+        <v>615</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>DIAZ</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>PALMA LINDA VERENIZ</v>
+      </c>
+      <c r="G59" t="s">
+        <v>661</v>
+      </c>
+      <c r="H59" t="s">
+        <v>422</v>
+      </c>
+      <c r="I59" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J59" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K59" t="s">
+        <v>645</v>
+      </c>
+      <c r="L59">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" t="s">
+        <v>461</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>BETANCOUR</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>CORRALES UFIR</v>
+      </c>
+      <c r="G60" t="s">
+        <v>661</v>
+      </c>
+      <c r="H60" t="s">
+        <v>422</v>
+      </c>
+      <c r="I60" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J60" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K60" t="s">
+        <v>645</v>
+      </c>
+      <c r="L60">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" t="s">
+        <v>466</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>VAZQUEZ</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>CRUZ HYPATIA</v>
+      </c>
+      <c r="G61" t="s">
+        <v>661</v>
+      </c>
+      <c r="H61" t="s">
+        <v>422</v>
+      </c>
+      <c r="I61" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J61" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K61" t="s">
+        <v>645</v>
+      </c>
+      <c r="L61">
+        <v>5168.3599999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" t="s">
+        <v>473</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>CASTILLO</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>ELGUERA MARICELA</v>
+      </c>
+      <c r="G62" t="s">
+        <v>661</v>
+      </c>
+      <c r="H62" t="s">
+        <v>422</v>
+      </c>
+      <c r="I62" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J62" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K62" t="s">
+        <v>645</v>
+      </c>
+      <c r="L62">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>292</v>
+      </c>
+      <c r="B63" t="s">
+        <v>293</v>
+      </c>
+      <c r="C63" t="s">
+        <v>486</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>CAMACHO</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v>MIRANDA JANANI</v>
+      </c>
+      <c r="G63" t="s">
+        <v>661</v>
+      </c>
+      <c r="H63" t="s">
+        <v>422</v>
+      </c>
+      <c r="I63" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J63" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K63" t="s">
+        <v>645</v>
+      </c>
+      <c r="L63">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>302</v>
+      </c>
+      <c r="B64" t="s">
+        <v>303</v>
+      </c>
+      <c r="C64" t="s">
+        <v>491</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>DONJUAN</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v>MORA RODRIGO</v>
+      </c>
+      <c r="G64" t="s">
+        <v>661</v>
+      </c>
+      <c r="H64" t="s">
+        <v>422</v>
+      </c>
+      <c r="I64" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J64" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K64" t="s">
+        <v>645</v>
+      </c>
+      <c r="L64">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>330</v>
+      </c>
+      <c r="B65" t="s">
+        <v>331</v>
+      </c>
+      <c r="C65" t="s">
+        <v>504</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>VELAZQUEZ</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v>OLALDE DAVID</v>
+      </c>
+      <c r="G65" t="s">
+        <v>661</v>
+      </c>
+      <c r="H65" t="s">
+        <v>422</v>
+      </c>
+      <c r="I65" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J65" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K65" t="s">
+        <v>645</v>
+      </c>
+      <c r="L65">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>392</v>
+      </c>
+      <c r="B66" t="s">
+        <v>393</v>
+      </c>
+      <c r="C66" t="s">
+        <v>535</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>HERNANDEZ</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v>RAMIREZ NELIDA</v>
+      </c>
+      <c r="G66" t="s">
+        <v>661</v>
+      </c>
+      <c r="H66" t="s">
+        <v>422</v>
+      </c>
+      <c r="I66" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J66" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K66" t="s">
+        <v>645</v>
+      </c>
+      <c r="L66">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" t="s">
+        <v>726</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D130" si="2">LEFT(C67,(FIND(" ", C67,1)-1))</f>
+        <v>SOTO</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E130" si="3">MID(C67,FIND(" ",C67)+1,256)</f>
+        <v>LOYA LUIS</v>
+      </c>
+      <c r="G67" t="s">
+        <v>661</v>
+      </c>
+      <c r="H67" t="s">
+        <v>422</v>
+      </c>
+      <c r="I67" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J67" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K67" t="s">
+        <v>645</v>
+      </c>
+      <c r="L67">
+        <v>7752</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" t="s">
+        <v>642</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="2"/>
+        <v>CASTRO</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="3"/>
+        <v>FABIAN MARIA LOS</v>
+      </c>
+      <c r="G68" t="s">
+        <v>661</v>
+      </c>
+      <c r="H68" t="s">
+        <v>422</v>
+      </c>
+      <c r="I68" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J68" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K68" t="s">
+        <v>645</v>
+      </c>
+      <c r="L68">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" t="s">
+        <v>619</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="2"/>
+        <v>TELLEZ</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="3"/>
+        <v>PASTRANA ANAHI SHURABE</v>
+      </c>
+      <c r="G69" t="s">
+        <v>661</v>
+      </c>
+      <c r="H69" t="s">
+        <v>422</v>
+      </c>
+      <c r="I69" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J69" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K69" t="s">
+        <v>645</v>
+      </c>
+      <c r="L69">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" t="s">
+        <v>727</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="2"/>
+        <v>PRADO</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="3"/>
+        <v>HERNÁNDEZ CRISOSTOMO</v>
+      </c>
+      <c r="G70" t="s">
+        <v>661</v>
+      </c>
+      <c r="H70" t="s">
+        <v>422</v>
+      </c>
+      <c r="I70" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J70" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K70" t="s">
+        <v>645</v>
+      </c>
+      <c r="L70">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>264</v>
+      </c>
+      <c r="B71" t="s">
+        <v>265</v>
+      </c>
+      <c r="C71" t="s">
+        <v>471</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="2"/>
+        <v>HERNANDEZ</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="3"/>
+        <v>DIMAS JONATHAN</v>
+      </c>
+      <c r="G71" t="s">
+        <v>661</v>
+      </c>
+      <c r="H71" t="s">
+        <v>422</v>
+      </c>
+      <c r="I71" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J71" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K71" t="s">
+        <v>645</v>
+      </c>
+      <c r="L71">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>298</v>
+      </c>
+      <c r="B72" t="s">
+        <v>299</v>
+      </c>
+      <c r="C72" t="s">
+        <v>489</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="2"/>
+        <v>CASTAÑON</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="3"/>
+        <v>MONTERO JUANA</v>
+      </c>
+      <c r="G72" t="s">
+        <v>661</v>
+      </c>
+      <c r="H72" t="s">
+        <v>422</v>
+      </c>
+      <c r="I72" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J72" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K72" t="s">
+        <v>645</v>
+      </c>
+      <c r="L72">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>398</v>
+      </c>
+      <c r="B73" t="s">
+        <v>399</v>
+      </c>
+      <c r="C73" t="s">
+        <v>538</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="2"/>
+        <v>ESCALERA</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="3"/>
+        <v>RENDON MARCO</v>
+      </c>
+      <c r="G73" t="s">
+        <v>661</v>
+      </c>
+      <c r="H73" t="s">
+        <v>422</v>
+      </c>
+      <c r="I73" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J73" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K73" t="s">
+        <v>645</v>
+      </c>
+      <c r="L73">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>214</v>
+      </c>
+      <c r="B74" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" t="s">
+        <v>621</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="2"/>
+        <v>ZARATE</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="3"/>
+        <v>PINEDA INES FLORENCIO</v>
+      </c>
+      <c r="G74" t="s">
+        <v>661</v>
+      </c>
+      <c r="H74" t="s">
+        <v>422</v>
+      </c>
+      <c r="I74" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J74" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K74" t="s">
+        <v>647</v>
+      </c>
+      <c r="L74">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>428</v>
+      </c>
+      <c r="B75" t="s">
+        <v>429</v>
+      </c>
+      <c r="C75" t="s">
+        <v>476</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="2"/>
+        <v>ESTRADA</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="3"/>
+        <v>ESPINOZA ELIZABETH</v>
+      </c>
+      <c r="G75" t="s">
+        <v>652</v>
+      </c>
+      <c r="H75" t="s">
+        <v>422</v>
+      </c>
+      <c r="I75" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J75" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K75" t="s">
+        <v>647</v>
+      </c>
+      <c r="L75">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" t="s">
+        <v>637</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="2"/>
+        <v>AGUILAR</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="3"/>
+        <v>DE LA SOFIA</v>
+      </c>
+      <c r="G76" t="s">
+        <v>651</v>
+      </c>
+      <c r="H76" t="s">
+        <v>422</v>
+      </c>
+      <c r="I76" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J76" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K76" t="s">
+        <v>647</v>
+      </c>
+      <c r="L76">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>308</v>
+      </c>
+      <c r="B77" t="s">
+        <v>309</v>
+      </c>
+      <c r="C77" t="s">
+        <v>494</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="2"/>
+        <v>FIGUEROA</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="3"/>
+        <v>MORALES SARA</v>
+      </c>
+      <c r="G77" t="s">
+        <v>657</v>
+      </c>
+      <c r="H77" t="s">
+        <v>422</v>
+      </c>
+      <c r="I77" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J77" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K77" t="s">
+        <v>647</v>
+      </c>
+      <c r="L77">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>352</v>
+      </c>
+      <c r="B78" t="s">
+        <v>353</v>
+      </c>
+      <c r="C78" t="s">
+        <v>515</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="2"/>
+        <v>VELEZ</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="3"/>
+        <v>PALACIOS LILIANA</v>
+      </c>
+      <c r="G78" t="s">
+        <v>662</v>
+      </c>
+      <c r="H78" t="s">
+        <v>422</v>
+      </c>
+      <c r="I78" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J78" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K78" t="s">
+        <v>647</v>
+      </c>
+      <c r="L78">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>400</v>
+      </c>
+      <c r="B79" t="s">
+        <v>401</v>
+      </c>
+      <c r="C79" t="s">
+        <v>539</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="2"/>
+        <v>SOTO</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="3"/>
+        <v>RENDON MARIA</v>
+      </c>
+      <c r="G79" t="s">
+        <v>656</v>
+      </c>
+      <c r="H79" t="s">
+        <v>422</v>
+      </c>
+      <c r="I79" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J79" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K79" t="s">
+        <v>647</v>
+      </c>
+      <c r="L79">
+        <v>4212.18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>432</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="2"/>
+        <v>FUENTES</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="3"/>
+        <v>ALMAZAN NATIVIDAD</v>
+      </c>
+      <c r="G80" t="s">
+        <v>663</v>
+      </c>
+      <c r="H80" t="s">
+        <v>422</v>
+      </c>
+      <c r="I80" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J80" s="1">
+        <v>40424</v>
+      </c>
+      <c r="K80" t="s">
+        <v>648</v>
+      </c>
+      <c r="L80">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>433</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="2"/>
+        <v>FLORES</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="3"/>
+        <v>LEYVA NOE</v>
+      </c>
+      <c r="G81" t="s">
+        <v>657</v>
+      </c>
+      <c r="H81" t="s">
+        <v>422</v>
+      </c>
+      <c r="I81" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J81" s="1">
+        <v>40424</v>
+      </c>
+      <c r="K81" t="s">
+        <v>648</v>
+      </c>
+      <c r="L81">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>550</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="2"/>
+        <v>GALARCE</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="3"/>
+        <v>NAVA MARIO ALBERTO</v>
+      </c>
+      <c r="G82" t="s">
+        <v>664</v>
+      </c>
+      <c r="H82" t="s">
+        <v>422</v>
+      </c>
+      <c r="I82" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J82" s="1">
+        <v>40424</v>
+      </c>
+      <c r="K82" t="s">
+        <v>648</v>
+      </c>
+      <c r="L82">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>434</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="2"/>
+        <v>FLORES</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="3"/>
+        <v>RAYA BENJAMIN</v>
+      </c>
+      <c r="G83" t="s">
+        <v>657</v>
+      </c>
+      <c r="H83" t="s">
+        <v>422</v>
+      </c>
+      <c r="I83" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J83" s="1">
+        <v>40424</v>
+      </c>
+      <c r="K83" t="s">
+        <v>648</v>
+      </c>
+      <c r="L83">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>551</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="2"/>
+        <v>FLORES</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="3"/>
+        <v>ADAME JORGE LUIS</v>
+      </c>
+      <c r="G84" t="s">
+        <v>659</v>
+      </c>
+      <c r="H84" t="s">
+        <v>422</v>
+      </c>
+      <c r="I84" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J84" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K84" t="s">
+        <v>648</v>
+      </c>
+      <c r="L84">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>552</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="2"/>
+        <v>CASAS</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="3"/>
+        <v>BAROJAS LUZ DEL CARMEN</v>
+      </c>
+      <c r="G85" t="s">
+        <v>664</v>
+      </c>
+      <c r="H85" t="s">
+        <v>422</v>
+      </c>
+      <c r="I85" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J85" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K85" t="s">
+        <v>648</v>
+      </c>
+      <c r="L85">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" t="s">
+        <v>436</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="2"/>
+        <v>CABRERA</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="3"/>
+        <v>BAUTISTA EMETERIO</v>
+      </c>
+      <c r="G86" t="s">
+        <v>662</v>
+      </c>
+      <c r="H86" t="s">
+        <v>422</v>
+      </c>
+      <c r="I86" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J86" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K86" t="s">
+        <v>648</v>
+      </c>
+      <c r="L86">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" t="s">
+        <v>437</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="2"/>
+        <v>GARCIA</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="3"/>
+        <v>BERRUECOS OMAR</v>
+      </c>
+      <c r="G87" t="s">
+        <v>656</v>
+      </c>
+      <c r="H87" t="s">
+        <v>422</v>
+      </c>
+      <c r="I87" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J87" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K87" t="s">
+        <v>648</v>
+      </c>
+      <c r="L87">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" t="s">
+        <v>554</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="2"/>
+        <v>ACEVEDO</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="3"/>
+        <v>CAMPOS MIGUEL ANGEL</v>
+      </c>
+      <c r="G88" t="s">
+        <v>656</v>
+      </c>
+      <c r="H88" t="s">
+        <v>422</v>
+      </c>
+      <c r="I88" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J88" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K88" t="s">
+        <v>648</v>
+      </c>
+      <c r="L88">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" t="s">
+        <v>439</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="2"/>
+        <v>BARAJAS</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="3"/>
+        <v>CORTES OMAR</v>
+      </c>
+      <c r="G89" t="s">
+        <v>652</v>
+      </c>
+      <c r="H89" t="s">
+        <v>422</v>
+      </c>
+      <c r="I89" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J89" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K89" t="s">
+        <v>648</v>
+      </c>
+      <c r="L89">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" t="s">
+        <v>556</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="2"/>
+        <v>CUEVAS</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="3"/>
+        <v>DEL CARMEN GANDHI</v>
+      </c>
+      <c r="G90" t="s">
+        <v>657</v>
+      </c>
+      <c r="H90" t="s">
+        <v>422</v>
+      </c>
+      <c r="I90" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J90" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K90" t="s">
+        <v>648</v>
+      </c>
+      <c r="L90">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" t="s">
+        <v>557</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="2"/>
+        <v>SOLIS</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="3"/>
+        <v>DIAZ NELBA IRIS</v>
+      </c>
+      <c r="G91" t="s">
+        <v>661</v>
+      </c>
+      <c r="H91" t="s">
+        <v>422</v>
+      </c>
+      <c r="I91" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J91" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K91" t="s">
+        <v>648</v>
+      </c>
+      <c r="L91">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" t="s">
+        <v>440</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="2"/>
+        <v>DAMIAN</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="3"/>
+        <v>ESTRADA ALEJANDRO</v>
+      </c>
+      <c r="G92" t="s">
+        <v>656</v>
+      </c>
+      <c r="H92" t="s">
+        <v>422</v>
+      </c>
+      <c r="I92" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J92" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K92" t="s">
+        <v>648</v>
+      </c>
+      <c r="L92">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" t="s">
+        <v>441</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="2"/>
+        <v>GUEVARA</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="3"/>
+        <v>GALLARDO SAMUEL</v>
+      </c>
+      <c r="G93" t="s">
+        <v>665</v>
+      </c>
+      <c r="H93" t="s">
+        <v>422</v>
+      </c>
+      <c r="I93" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J93" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K93" t="s">
+        <v>648</v>
+      </c>
+      <c r="L93">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" t="s">
+        <v>558</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="2"/>
+        <v>CORTES</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="3"/>
+        <v>GUTIERREZ JOSE DRIDEN</v>
+      </c>
+      <c r="G94" t="s">
+        <v>666</v>
+      </c>
+      <c r="H94" t="s">
+        <v>422</v>
+      </c>
+      <c r="I94" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J94" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K94" t="s">
+        <v>648</v>
+      </c>
+      <c r="L94">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" t="s">
+        <v>443</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="2"/>
+        <v>RONDIN</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="3"/>
+        <v>JUAREZ UZZIEL</v>
+      </c>
+      <c r="G95" t="s">
+        <v>667</v>
+      </c>
+      <c r="H95" t="s">
+        <v>422</v>
+      </c>
+      <c r="I95" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J95" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K95" t="s">
+        <v>648</v>
+      </c>
+      <c r="L95">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" t="s">
+        <v>444</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="2"/>
+        <v>GARCIA</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="3"/>
+        <v>LIMA ANTONIO</v>
+      </c>
+      <c r="G96" t="s">
+        <v>658</v>
+      </c>
+      <c r="H96" t="s">
+        <v>422</v>
+      </c>
+      <c r="I96" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J96" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K96" t="s">
+        <v>648</v>
+      </c>
+      <c r="L96">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" t="s">
+        <v>445</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="2"/>
+        <v>VAZQUEZ</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="3"/>
+        <v>LOPEZ CONCEPCION</v>
+      </c>
+      <c r="G97" t="s">
+        <v>652</v>
+      </c>
+      <c r="H97" t="s">
+        <v>422</v>
+      </c>
+      <c r="I97" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J97" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K97" t="s">
+        <v>648</v>
+      </c>
+      <c r="L97">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" t="s">
+        <v>559</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="2"/>
+        <v>ASTUDILLO</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="3"/>
+        <v>NAVA LUIS ALFONSO</v>
+      </c>
+      <c r="G98" t="s">
+        <v>654</v>
+      </c>
+      <c r="H98" t="s">
+        <v>422</v>
+      </c>
+      <c r="I98" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J98" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K98" t="s">
+        <v>648</v>
+      </c>
+      <c r="L98">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" t="s">
+        <v>560</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="2"/>
+        <v>GONZALEZ</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="3"/>
+        <v>PERALTA EDUARDO IVAN</v>
+      </c>
+      <c r="G99" t="s">
+        <v>658</v>
+      </c>
+      <c r="H99" t="s">
+        <v>422</v>
+      </c>
+      <c r="I99" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J99" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K99" t="s">
+        <v>648</v>
+      </c>
+      <c r="L99">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" t="s">
+        <v>447</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="2"/>
+        <v>TORNEZ</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="3"/>
+        <v>PEREZ NATALY</v>
+      </c>
+      <c r="G100" t="s">
+        <v>653</v>
+      </c>
+      <c r="H100" t="s">
+        <v>422</v>
+      </c>
+      <c r="I100" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J100" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K100" t="s">
+        <v>648</v>
+      </c>
+      <c r="L100">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" t="s">
+        <v>448</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="2"/>
+        <v>GONZALEZ</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="3"/>
+        <v>RENDON JONATHAN</v>
+      </c>
+      <c r="G101" t="s">
+        <v>656</v>
+      </c>
+      <c r="H101" t="s">
+        <v>422</v>
+      </c>
+      <c r="I101" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J101" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K101" t="s">
+        <v>648</v>
+      </c>
+      <c r="L101">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" t="s">
+        <v>450</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="2"/>
+        <v>GARCIA</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="3"/>
+        <v>RUMBO RUBEN</v>
+      </c>
+      <c r="G102" t="s">
+        <v>654</v>
+      </c>
+      <c r="H102" t="s">
+        <v>422</v>
+      </c>
+      <c r="I102" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J102" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K102" t="s">
+        <v>648</v>
+      </c>
+      <c r="L102">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" t="s">
+        <v>451</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="2"/>
+        <v>ANTAÑO</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="3"/>
+        <v>SILVA DAVID</v>
+      </c>
+      <c r="G103" t="s">
+        <v>660</v>
+      </c>
+      <c r="H103" t="s">
+        <v>422</v>
+      </c>
+      <c r="I103" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J103" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K103" t="s">
+        <v>648</v>
+      </c>
+      <c r="L103">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>69</v>
+      </c>
+      <c r="B104" t="s">
+        <v>70</v>
+      </c>
+      <c r="C104" t="s">
+        <v>452</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="2"/>
+        <v>RUMBO</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="3"/>
+        <v>SUASTEGUI VERONICA</v>
+      </c>
+      <c r="G104" t="s">
+        <v>655</v>
+      </c>
+      <c r="H104" t="s">
+        <v>422</v>
+      </c>
+      <c r="I104" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J104" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K104" t="s">
+        <v>648</v>
+      </c>
+      <c r="L104">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" t="s">
+        <v>675</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="2"/>
+        <v>RAMIREZ</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="3"/>
+        <v>ARELLANO MARIA DEL</v>
+      </c>
+      <c r="G105" t="s">
+        <v>654</v>
+      </c>
+      <c r="H105" t="s">
+        <v>422</v>
+      </c>
+      <c r="I105" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J105" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K105" t="s">
+        <v>648</v>
+      </c>
+      <c r="L105">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" t="s">
+        <v>590</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="2"/>
+        <v>AMAYA</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="3"/>
+        <v>CALVO PAMELA GEOVANA</v>
+      </c>
+      <c r="G106" t="s">
+        <v>653</v>
+      </c>
+      <c r="H106" t="s">
+        <v>422</v>
+      </c>
+      <c r="I106" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J106" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K106" t="s">
+        <v>648</v>
+      </c>
+      <c r="L106">
+        <v>6559</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107" t="s">
+        <v>596</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="2"/>
+        <v>ADAME</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="3"/>
+        <v>CASTRO LILIANA ELIZABETH</v>
+      </c>
+      <c r="G107" t="s">
+        <v>652</v>
+      </c>
+      <c r="H107" t="s">
+        <v>422</v>
+      </c>
+      <c r="I107" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J107" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K107" t="s">
+        <v>648</v>
+      </c>
+      <c r="L107">
+        <v>6559</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" t="s">
+        <v>597</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="2"/>
+        <v>DOMINGUEZ</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="3"/>
+        <v>CONTRERAS GIULIANA PATRICIA</v>
+      </c>
+      <c r="G108" t="s">
+        <v>654</v>
+      </c>
+      <c r="H108" t="s">
+        <v>422</v>
+      </c>
+      <c r="I108" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J108" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K108" t="s">
+        <v>648</v>
+      </c>
+      <c r="L108">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" t="s">
+        <v>598</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="2"/>
+        <v>GALICIA</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="3"/>
+        <v>CORTEZ MIGUEL ANGEL</v>
+      </c>
+      <c r="G109" t="s">
+        <v>656</v>
+      </c>
+      <c r="H109" t="s">
+        <v>422</v>
+      </c>
+      <c r="I109" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J109" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K109" t="s">
+        <v>648</v>
+      </c>
+      <c r="L109">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" t="s">
+        <v>731</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="2"/>
+        <v>DEJESUS</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="3"/>
+        <v>CRISOSTOMO LORENA</v>
+      </c>
+      <c r="G110" t="s">
+        <v>654</v>
+      </c>
+      <c r="H110" t="s">
+        <v>422</v>
+      </c>
+      <c r="I110" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J110" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K110" t="s">
+        <v>648</v>
+      </c>
+      <c r="L110">
+        <v>7752</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>164</v>
+      </c>
+      <c r="B111" t="s">
+        <v>165</v>
+      </c>
+      <c r="C111" t="s">
+        <v>603</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="2"/>
+        <v>GARCIA</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="3"/>
+        <v>ESCOBAR NELLY NATIVIDAD</v>
+      </c>
+      <c r="G111" t="s">
+        <v>659</v>
+      </c>
+      <c r="H111" t="s">
+        <v>422</v>
+      </c>
+      <c r="I111" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J111" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K111" t="s">
+        <v>648</v>
+      </c>
+      <c r="L111">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112" t="s">
+        <v>187</v>
+      </c>
+      <c r="C112" t="s">
+        <v>610</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="2"/>
+        <v>CASTAÑON</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="3"/>
+        <v>MONTERO LIZ CATALINA</v>
+      </c>
+      <c r="G112" t="s">
+        <v>654</v>
+      </c>
+      <c r="H112" t="s">
+        <v>422</v>
+      </c>
+      <c r="I112" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J112" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K112" t="s">
+        <v>648</v>
+      </c>
+      <c r="L112">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>192</v>
+      </c>
+      <c r="B113" t="s">
+        <v>193</v>
+      </c>
+      <c r="C113" t="s">
+        <v>612</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="2"/>
+        <v>RUANO</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="3"/>
+        <v>NAVA CESAR JOVANI</v>
+      </c>
+      <c r="G113" t="s">
+        <v>655</v>
+      </c>
+      <c r="H113" t="s">
+        <v>422</v>
+      </c>
+      <c r="I113" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J113" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K113" t="s">
+        <v>648</v>
+      </c>
+      <c r="L113">
+        <v>2189.7600000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>194</v>
+      </c>
+      <c r="B114" t="s">
+        <v>195</v>
+      </c>
+      <c r="C114" t="s">
+        <v>563</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="2"/>
+        <v>SEVILLA</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="3"/>
+        <v>NAVA LUIS ARMANDO</v>
+      </c>
+      <c r="G114" t="s">
+        <v>666</v>
+      </c>
+      <c r="H114" t="s">
+        <v>422</v>
+      </c>
+      <c r="I114" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J114" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K114" t="s">
+        <v>648</v>
+      </c>
+      <c r="L114">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" t="s">
+        <v>205</v>
+      </c>
+      <c r="C115" t="s">
+        <v>617</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="2"/>
+        <v>SALGADO</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="3"/>
+        <v>PASTOR JULIO ADRIAN</v>
+      </c>
+      <c r="G115" t="s">
+        <v>667</v>
+      </c>
+      <c r="H115" t="s">
+        <v>422</v>
+      </c>
+      <c r="I115" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J115" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K115" t="s">
+        <v>648</v>
+      </c>
+      <c r="L115">
+        <v>12832</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" t="s">
+        <v>217</v>
+      </c>
+      <c r="C116" t="s">
+        <v>728</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="2"/>
+        <v>LUZ</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="3"/>
+        <v>QUEVEDO DANIEL</v>
+      </c>
+      <c r="G116" t="s">
+        <v>667</v>
+      </c>
+      <c r="H116" t="s">
+        <v>422</v>
+      </c>
+      <c r="I116" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J116" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K116" t="s">
+        <v>648</v>
+      </c>
+      <c r="L116">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>218</v>
+      </c>
+      <c r="B117" t="s">
+        <v>219</v>
+      </c>
+      <c r="C117" t="s">
+        <v>623</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="2"/>
+        <v>RODRIGUEZ</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="3"/>
+        <v>QUEZADA JOSE ANTONIO</v>
+      </c>
+      <c r="G117" t="s">
+        <v>659</v>
+      </c>
+      <c r="H117" t="s">
+        <v>422</v>
+      </c>
+      <c r="I117" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J117" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K117" t="s">
+        <v>648</v>
+      </c>
+      <c r="L117">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>73</v>
+      </c>
+      <c r="B118" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" t="s">
+        <v>629</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="2"/>
+        <v>SOTO</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="3"/>
+        <v>RENDON MARIA ROSARIO</v>
+      </c>
+      <c r="G118" t="s">
+        <v>667</v>
+      </c>
+      <c r="H118" t="s">
+        <v>422</v>
+      </c>
+      <c r="I118" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J118" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K118" t="s">
+        <v>648</v>
+      </c>
+      <c r="L118">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" t="s">
+        <v>729</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="2"/>
+        <v>CASARRUBIAS</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="3"/>
+        <v>LUZ VICTOR</v>
+      </c>
+      <c r="G119" t="s">
+        <v>668</v>
+      </c>
+      <c r="H119" t="s">
+        <v>422</v>
+      </c>
+      <c r="I119" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J119" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K119" t="s">
+        <v>648</v>
+      </c>
+      <c r="L119">
+        <v>7752</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" t="s">
+        <v>247</v>
+      </c>
+      <c r="C120" t="s">
+        <v>462</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="2"/>
+        <v>SOTO</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="3"/>
+        <v>CORTES GRACIELA</v>
+      </c>
+      <c r="G120" t="s">
+        <v>654</v>
+      </c>
+      <c r="H120" t="s">
+        <v>422</v>
+      </c>
+      <c r="I120" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J120" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K120" t="s">
+        <v>648</v>
+      </c>
+      <c r="L120">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>250</v>
+      </c>
+      <c r="B121" t="s">
+        <v>251</v>
+      </c>
+      <c r="C121" t="s">
+        <v>464</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="2"/>
+        <v>CAMILO</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="3"/>
+        <v>CRUZ ANTONIO</v>
+      </c>
+      <c r="G121" t="s">
+        <v>667</v>
+      </c>
+      <c r="H121" t="s">
+        <v>422</v>
+      </c>
+      <c r="I121" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J121" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K121" t="s">
+        <v>648</v>
+      </c>
+      <c r="L121">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>252</v>
+      </c>
+      <c r="B122" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122" t="s">
+        <v>465</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="2"/>
+        <v>SANTILLAN</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="3"/>
+        <v>CRUZ ENRIQUE</v>
+      </c>
+      <c r="G122" t="s">
+        <v>659</v>
+      </c>
+      <c r="H122" t="s">
+        <v>422</v>
+      </c>
+      <c r="I122" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J122" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K122" t="s">
+        <v>648</v>
+      </c>
+      <c r="L122">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>272</v>
+      </c>
+      <c r="B123" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" t="s">
+        <v>475</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="2"/>
+        <v>AVILA</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="3"/>
+        <v>ESPINOZA JUAN</v>
+      </c>
+      <c r="G123" t="s">
+        <v>656</v>
+      </c>
+      <c r="H123" t="s">
+        <v>422</v>
+      </c>
+      <c r="I123" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J123" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K123" t="s">
+        <v>648</v>
+      </c>
+      <c r="L123">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>286</v>
+      </c>
+      <c r="B124" t="s">
+        <v>287</v>
+      </c>
+      <c r="C124" t="s">
+        <v>483</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="2"/>
+        <v>BLANCO</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="3"/>
+        <v>FIERROS KAHORY</v>
+      </c>
+      <c r="G124" t="s">
+        <v>653</v>
+      </c>
+      <c r="H124" t="s">
+        <v>422</v>
+      </c>
+      <c r="I124" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J124" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K124" t="s">
+        <v>648</v>
+      </c>
+      <c r="L124">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>288</v>
+      </c>
+      <c r="B125" t="s">
+        <v>289</v>
+      </c>
+      <c r="C125" t="s">
+        <v>484</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="2"/>
+        <v>ZARAGOZA</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="3"/>
+        <v>FIGUEROA MAGDALENA</v>
+      </c>
+      <c r="G125" t="s">
+        <v>656</v>
+      </c>
+      <c r="H125" t="s">
+        <v>422</v>
+      </c>
+      <c r="I125" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J125" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K125" t="s">
+        <v>648</v>
+      </c>
+      <c r="L125">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>296</v>
+      </c>
+      <c r="B126" t="s">
+        <v>297</v>
+      </c>
+      <c r="C126" t="s">
+        <v>488</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="2"/>
+        <v>GERARDO</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="3"/>
+        <v>MOLINA NAYALI</v>
+      </c>
+      <c r="G126" t="s">
+        <v>656</v>
+      </c>
+      <c r="H126" t="s">
+        <v>422</v>
+      </c>
+      <c r="I126" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J126" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K126" t="s">
+        <v>648</v>
+      </c>
+      <c r="L126">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>306</v>
+      </c>
+      <c r="B127" t="s">
+        <v>307</v>
+      </c>
+      <c r="C127" t="s">
+        <v>493</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="2"/>
+        <v>DIAZ</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="3"/>
+        <v>MORALES ABEL</v>
+      </c>
+      <c r="G127" t="s">
+        <v>652</v>
+      </c>
+      <c r="H127" t="s">
+        <v>422</v>
+      </c>
+      <c r="I127" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J127" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K127" t="s">
+        <v>648</v>
+      </c>
+      <c r="L127">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>316</v>
+      </c>
+      <c r="B128" t="s">
+        <v>317</v>
+      </c>
+      <c r="C128" t="s">
+        <v>676</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="2"/>
+        <v>RAMIREZ</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="3"/>
+        <v>MURAT MARIANADIA</v>
+      </c>
+      <c r="G128" t="s">
+        <v>653</v>
+      </c>
+      <c r="H128" t="s">
+        <v>422</v>
+      </c>
+      <c r="I128" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J128" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K128" t="s">
+        <v>648</v>
+      </c>
+      <c r="L128">
+        <v>11484</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>328</v>
+      </c>
+      <c r="B129" t="s">
+        <v>329</v>
+      </c>
+      <c r="C129" t="s">
+        <v>503</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="2"/>
+        <v>SCHULZ</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="3"/>
+        <v>NORBERTO GUSTAVO</v>
+      </c>
+      <c r="G129" t="s">
+        <v>669</v>
+      </c>
+      <c r="H129" t="s">
+        <v>422</v>
+      </c>
+      <c r="I129" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J129" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K129" t="s">
+        <v>648</v>
+      </c>
+      <c r="L129">
+        <v>13115.1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>336</v>
+      </c>
+      <c r="B130" t="s">
+        <v>337</v>
+      </c>
+      <c r="C130" t="s">
+        <v>507</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="2"/>
+        <v>VARGAS</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="3"/>
+        <v>ORGANISTA MARTIN</v>
+      </c>
+      <c r="G130" t="s">
+        <v>658</v>
+      </c>
+      <c r="H130" t="s">
+        <v>422</v>
+      </c>
+      <c r="I130" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J130" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K130" t="s">
+        <v>648</v>
+      </c>
+      <c r="L130">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>346</v>
+      </c>
+      <c r="B131" t="s">
+        <v>347</v>
+      </c>
+      <c r="C131" t="s">
+        <v>512</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D194" si="4">LEFT(C131,(FIND(" ", C131,1)-1))</f>
+        <v>SALMERON</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" ref="E131:E194" si="5">MID(C131,FIND(" ",C131)+1,256)</f>
+        <v>PADILLA ULISES</v>
+      </c>
+      <c r="G131" t="s">
+        <v>654</v>
+      </c>
+      <c r="H131" t="s">
+        <v>422</v>
+      </c>
+      <c r="I131" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J131" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K131" t="s">
+        <v>648</v>
+      </c>
+      <c r="L131">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>358</v>
+      </c>
+      <c r="B132" t="s">
+        <v>359</v>
+      </c>
+      <c r="C132" t="s">
+        <v>518</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="4"/>
+        <v>SIMON</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="5"/>
+        <v>PANFILO RAFAEL</v>
+      </c>
+      <c r="G132" t="s">
+        <v>664</v>
+      </c>
+      <c r="H132" t="s">
+        <v>422</v>
+      </c>
+      <c r="I132" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J132" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K132" t="s">
+        <v>648</v>
+      </c>
+      <c r="L132">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>372</v>
+      </c>
+      <c r="B133" t="s">
+        <v>373</v>
+      </c>
+      <c r="C133" t="s">
+        <v>525</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="4"/>
+        <v>CORONA</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="5"/>
+        <v>PEREZ ZEFERINO</v>
+      </c>
+      <c r="G133" t="s">
+        <v>664</v>
+      </c>
+      <c r="H133" t="s">
+        <v>422</v>
+      </c>
+      <c r="I133" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J133" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K133" t="s">
+        <v>648</v>
+      </c>
+      <c r="L133">
+        <v>7036</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>374</v>
+      </c>
+      <c r="B134" t="s">
+        <v>375</v>
+      </c>
+      <c r="C134" t="s">
+        <v>526</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="4"/>
+        <v>HERNANDEZ</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="5"/>
+        <v>PEREZ OMAR</v>
+      </c>
+      <c r="G134" t="s">
+        <v>654</v>
+      </c>
+      <c r="H134" t="s">
+        <v>422</v>
+      </c>
+      <c r="I134" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J134" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K134" t="s">
+        <v>648</v>
+      </c>
+      <c r="L134">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>396</v>
+      </c>
+      <c r="B135" t="s">
+        <v>397</v>
+      </c>
+      <c r="C135" t="s">
+        <v>537</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="4"/>
+        <v>ZARATE</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="5"/>
+        <v>RAMOS OSCAR</v>
+      </c>
+      <c r="G135" t="s">
+        <v>652</v>
+      </c>
+      <c r="H135" t="s">
+        <v>422</v>
+      </c>
+      <c r="I135" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J135" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K135" t="s">
+        <v>648</v>
+      </c>
+      <c r="L135">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>412</v>
+      </c>
+      <c r="B136" t="s">
+        <v>413</v>
+      </c>
+      <c r="C136" t="s">
+        <v>545</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="4"/>
+        <v>GUTIERREZ</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="5"/>
+        <v>RIVERA ADRIANA</v>
+      </c>
+      <c r="G136" t="s">
+        <v>658</v>
+      </c>
+      <c r="H136" t="s">
+        <v>422</v>
+      </c>
+      <c r="I136" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J136" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K136" t="s">
+        <v>648</v>
+      </c>
+      <c r="L136">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>107</v>
+      </c>
+      <c r="B137" t="s">
+        <v>108</v>
+      </c>
+      <c r="C137" t="s">
+        <v>578</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="4"/>
+        <v>GARCIA</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="5"/>
+        <v>AGUILAR CARLOS ALBERTO</v>
+      </c>
+      <c r="G137" t="s">
+        <v>658</v>
+      </c>
+      <c r="H137" t="s">
+        <v>422</v>
+      </c>
+      <c r="I137" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J137" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K137" t="s">
+        <v>648</v>
+      </c>
+      <c r="L137">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>117</v>
+      </c>
+      <c r="B138" t="s">
+        <v>118</v>
+      </c>
+      <c r="C138" t="s">
+        <v>582</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="4"/>
+        <v>GUERRERO</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="5"/>
+        <v>AVILES ITZEL GUADALUPE</v>
+      </c>
+      <c r="G138" t="s">
+        <v>656</v>
+      </c>
+      <c r="H138" t="s">
+        <v>422</v>
+      </c>
+      <c r="I138" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J138" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K138" t="s">
+        <v>648</v>
+      </c>
+      <c r="L138">
+        <v>7287</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>119</v>
+      </c>
+      <c r="B139" t="s">
+        <v>120</v>
+      </c>
+      <c r="C139" t="s">
+        <v>583</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="4"/>
+        <v>ABARCA</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="5"/>
+        <v>AYALA JOSE ANTONIO</v>
+      </c>
+      <c r="G139" t="s">
+        <v>660</v>
+      </c>
+      <c r="H139" t="s">
+        <v>422</v>
+      </c>
+      <c r="I139" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J139" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K139" t="s">
+        <v>648</v>
+      </c>
+      <c r="L139">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>121</v>
+      </c>
+      <c r="B140" t="s">
+        <v>122</v>
+      </c>
+      <c r="C140" t="s">
+        <v>584</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="4"/>
+        <v>RIOS</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="5"/>
+        <v>BARRIOS PEDRO ALBERTO</v>
+      </c>
+      <c r="G140" t="s">
+        <v>659</v>
+      </c>
+      <c r="H140" t="s">
+        <v>422</v>
+      </c>
+      <c r="I140" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J140" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K140" t="s">
+        <v>648</v>
+      </c>
+      <c r="L140">
+        <v>6559</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>125</v>
+      </c>
+      <c r="B141" t="s">
+        <v>126</v>
+      </c>
+      <c r="C141" t="s">
+        <v>586</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="4"/>
+        <v>CRISPIN</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="5"/>
+        <v>BELTRAN VICTOR MANUEL</v>
+      </c>
+      <c r="G141" t="s">
+        <v>670</v>
+      </c>
+      <c r="H141" t="s">
+        <v>422</v>
+      </c>
+      <c r="I141" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J141" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K141" t="s">
+        <v>648</v>
+      </c>
+      <c r="L141">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>127</v>
+      </c>
+      <c r="B142" t="s">
+        <v>128</v>
+      </c>
+      <c r="C142" t="s">
+        <v>587</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="4"/>
+        <v>SALES</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" si="5"/>
+        <v>BERNAL ANA ISABEL</v>
+      </c>
+      <c r="G142" t="s">
+        <v>661</v>
+      </c>
+      <c r="H142" t="s">
+        <v>422</v>
+      </c>
+      <c r="I142" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J142" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K142" t="s">
+        <v>648</v>
+      </c>
+      <c r="L142">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143" t="s">
+        <v>153</v>
+      </c>
+      <c r="C143" t="s">
+        <v>636</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="4"/>
+        <v>VELEZ</v>
+      </c>
+      <c r="E143" t="str">
+        <f t="shared" si="5"/>
+        <v>PALACIOS LILIANA PAMELY ANGEL</v>
+      </c>
+      <c r="G143" t="s">
+        <v>664</v>
+      </c>
+      <c r="H143" t="s">
+        <v>422</v>
+      </c>
+      <c r="I143" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J143" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K143" t="s">
+        <v>648</v>
+      </c>
+      <c r="L143">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" t="s">
+        <v>159</v>
+      </c>
+      <c r="C144" t="s">
+        <v>638</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="4"/>
+        <v>CATALAN</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" si="5"/>
+        <v>DE LA PEDRO</v>
+      </c>
+      <c r="G144" t="s">
+        <v>661</v>
+      </c>
+      <c r="H144" t="s">
+        <v>422</v>
+      </c>
+      <c r="I144" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J144" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K144" t="s">
+        <v>648</v>
+      </c>
+      <c r="L144">
+        <v>7287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>176</v>
+      </c>
+      <c r="B145" t="s">
+        <v>177</v>
+      </c>
+      <c r="C145" t="s">
+        <v>730</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="4"/>
+        <v>SÁNCHEZ</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="5"/>
+        <v>TORRE ITZEL</v>
+      </c>
+      <c r="G145" t="s">
+        <v>659</v>
+      </c>
+      <c r="H145" t="s">
+        <v>422</v>
+      </c>
+      <c r="I145" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J145" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K145" t="s">
+        <v>648</v>
+      </c>
+      <c r="L145">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>188</v>
+      </c>
+      <c r="B146" t="s">
+        <v>189</v>
+      </c>
+      <c r="C146" t="s">
+        <v>643</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="4"/>
+        <v>CASARRUBIAS</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="5"/>
+        <v>H. LUZ HUGO</v>
+      </c>
+      <c r="G146" t="s">
+        <v>654</v>
+      </c>
+      <c r="H146" t="s">
+        <v>422</v>
+      </c>
+      <c r="I146" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J146" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K146" t="s">
+        <v>648</v>
+      </c>
+      <c r="L146">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>206</v>
+      </c>
+      <c r="B147" t="s">
+        <v>207</v>
+      </c>
+      <c r="C147" t="s">
+        <v>618</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="4"/>
+        <v>SALAZAR</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="5"/>
+        <v>PASTRANA ROBERTO VLADIMIR</v>
+      </c>
+      <c r="G147" t="s">
+        <v>659</v>
+      </c>
+      <c r="H147" t="s">
+        <v>422</v>
+      </c>
+      <c r="I147" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J147" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K147" t="s">
+        <v>648</v>
+      </c>
+      <c r="L147">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>220</v>
+      </c>
+      <c r="B148" t="s">
+        <v>221</v>
+      </c>
+      <c r="C148" t="s">
+        <v>624</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="4"/>
+        <v>FIERRO</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="5"/>
+        <v>RADILLA OMAR RENATO</v>
+      </c>
+      <c r="G148" t="s">
+        <v>653</v>
+      </c>
+      <c r="H148" t="s">
+        <v>422</v>
+      </c>
+      <c r="I148" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J148" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K148" t="s">
+        <v>648</v>
+      </c>
+      <c r="L148">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>222</v>
+      </c>
+      <c r="B149" t="s">
+        <v>223</v>
+      </c>
+      <c r="C149" t="s">
+        <v>625</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="4"/>
+        <v>BRINGAS</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="5"/>
+        <v>RAMIREZ MANUEL ANGEL</v>
+      </c>
+      <c r="G149" t="s">
+        <v>658</v>
+      </c>
+      <c r="H149" t="s">
+        <v>422</v>
+      </c>
+      <c r="I149" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J149" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K149" t="s">
+        <v>648</v>
+      </c>
+      <c r="L149">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>226</v>
+      </c>
+      <c r="B150" t="s">
+        <v>227</v>
+      </c>
+      <c r="C150" t="s">
+        <v>565</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="4"/>
+        <v>FIGUEROA</v>
+      </c>
+      <c r="E150" t="str">
+        <f t="shared" si="5"/>
+        <v>RAMIREZ KENIA GUADALUPE</v>
+      </c>
+      <c r="G150" t="s">
+        <v>661</v>
+      </c>
+      <c r="H150" t="s">
+        <v>422</v>
+      </c>
+      <c r="I150" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J150" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K150" t="s">
+        <v>648</v>
+      </c>
+      <c r="L150">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>270</v>
+      </c>
+      <c r="B151" t="s">
+        <v>271</v>
+      </c>
+      <c r="C151" t="s">
+        <v>474</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="4"/>
+        <v>GARCIA</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="5"/>
+        <v>ESCOBAR NELLY</v>
+      </c>
+      <c r="G151" t="s">
+        <v>666</v>
+      </c>
+      <c r="H151" t="s">
+        <v>422</v>
+      </c>
+      <c r="I151" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J151" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K151" t="s">
+        <v>648</v>
+      </c>
+      <c r="L151">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>284</v>
+      </c>
+      <c r="B152" t="s">
+        <v>285</v>
+      </c>
+      <c r="C152" t="s">
+        <v>482</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="4"/>
+        <v>CLAVEL</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="5"/>
+        <v>FABIAN VICTOR</v>
+      </c>
+      <c r="G152" t="s">
+        <v>666</v>
+      </c>
+      <c r="H152" t="s">
+        <v>422</v>
+      </c>
+      <c r="I152" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J152" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K152" t="s">
+        <v>648</v>
+      </c>
+      <c r="L152">
+        <v>7752</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>294</v>
+      </c>
+      <c r="B153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C153" t="s">
+        <v>487</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="4"/>
+        <v>CARBAJAL</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="5"/>
+        <v>MOLINA LIDIA</v>
+      </c>
+      <c r="G153" t="s">
+        <v>653</v>
+      </c>
+      <c r="H153" t="s">
+        <v>422</v>
+      </c>
+      <c r="I153" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J153" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K153" t="s">
+        <v>648</v>
+      </c>
+      <c r="L153">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>294</v>
+      </c>
+      <c r="B154" t="s">
+        <v>295</v>
+      </c>
+      <c r="C154" t="s">
+        <v>487</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="4"/>
+        <v>CARBAJAL</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="5"/>
+        <v>MOLINA LIDIA</v>
+      </c>
+      <c r="G154" t="s">
+        <v>652</v>
+      </c>
+      <c r="H154" t="s">
+        <v>422</v>
+      </c>
+      <c r="I154" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J154" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K154" t="s">
+        <v>648</v>
+      </c>
+      <c r="L154">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>300</v>
+      </c>
+      <c r="B155" t="s">
+        <v>301</v>
+      </c>
+      <c r="C155" t="s">
+        <v>490</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="4"/>
+        <v>CASTAÑON</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="5"/>
+        <v>MONTERO LIZ</v>
+      </c>
+      <c r="G155" t="s">
+        <v>659</v>
+      </c>
+      <c r="H155" t="s">
+        <v>422</v>
+      </c>
+      <c r="I155" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J155" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K155" t="s">
+        <v>648</v>
+      </c>
+      <c r="L155">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>320</v>
+      </c>
+      <c r="B156" t="s">
+        <v>321</v>
+      </c>
+      <c r="C156" t="s">
+        <v>499</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="4"/>
+        <v>ATRISCO</v>
+      </c>
+      <c r="E156" t="str">
+        <f t="shared" si="5"/>
+        <v>NAVA JOSE</v>
+      </c>
+      <c r="G156" t="s">
+        <v>659</v>
+      </c>
+      <c r="H156" t="s">
+        <v>422</v>
+      </c>
+      <c r="I156" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J156" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K156" t="s">
+        <v>648</v>
+      </c>
+      <c r="L156">
+        <v>6712.18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>324</v>
+      </c>
+      <c r="B157" t="s">
+        <v>325</v>
+      </c>
+      <c r="C157" t="s">
+        <v>501</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="4"/>
+        <v>RUANO</v>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="5"/>
+        <v>NAVA CESAR</v>
+      </c>
+      <c r="G157" t="s">
+        <v>654</v>
+      </c>
+      <c r="H157" t="s">
+        <v>422</v>
+      </c>
+      <c r="I157" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J157" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K157" t="s">
+        <v>648</v>
+      </c>
+      <c r="L157">
+        <v>2647.19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>342</v>
+      </c>
+      <c r="B158" t="s">
+        <v>343</v>
+      </c>
+      <c r="C158" t="s">
+        <v>510</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="4"/>
+        <v>TEMIQUELT</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="5"/>
+        <v>ORTIZ JOSE</v>
+      </c>
+      <c r="G158" t="s">
+        <v>656</v>
+      </c>
+      <c r="H158" t="s">
+        <v>422</v>
+      </c>
+      <c r="I158" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J158" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K158" t="s">
+        <v>648</v>
+      </c>
+      <c r="L158">
+        <v>9541</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>360</v>
+      </c>
+      <c r="B159" t="s">
+        <v>361</v>
+      </c>
+      <c r="C159" t="s">
+        <v>519</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="4"/>
+        <v>AVILA</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="5"/>
+        <v>PASTOR EMIR</v>
+      </c>
+      <c r="G159" t="s">
+        <v>667</v>
+      </c>
+      <c r="H159" t="s">
+        <v>422</v>
+      </c>
+      <c r="I159" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J159" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K159" t="s">
+        <v>648</v>
+      </c>
+      <c r="L159">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>362</v>
+      </c>
+      <c r="B160" t="s">
+        <v>363</v>
+      </c>
+      <c r="C160" t="s">
+        <v>520</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="4"/>
+        <v>SALGADO</v>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="5"/>
+        <v>PASTOR JULIO</v>
+      </c>
+      <c r="G160" t="s">
+        <v>654</v>
+      </c>
+      <c r="H160" t="s">
+        <v>422</v>
+      </c>
+      <c r="I160" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J160" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K160" t="s">
+        <v>648</v>
+      </c>
+      <c r="L160">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>366</v>
+      </c>
+      <c r="B161" t="s">
+        <v>367</v>
+      </c>
+      <c r="C161" t="s">
+        <v>522</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="4"/>
+        <v>TELLEZ</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="5"/>
+        <v>PASTRANA ANAHI</v>
+      </c>
+      <c r="G161" t="s">
+        <v>652</v>
+      </c>
+      <c r="H161" t="s">
+        <v>422</v>
+      </c>
+      <c r="I161" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J161" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K161" t="s">
+        <v>648</v>
+      </c>
+      <c r="L161">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>388</v>
+      </c>
+      <c r="B162" t="s">
+        <v>389</v>
+      </c>
+      <c r="C162" t="s">
+        <v>533</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="4"/>
+        <v>BRINGAS</v>
+      </c>
+      <c r="E162" t="str">
+        <f t="shared" si="5"/>
+        <v>RAMIREZ MANUEL</v>
+      </c>
+      <c r="G162" t="s">
+        <v>666</v>
+      </c>
+      <c r="H162" t="s">
+        <v>422</v>
+      </c>
+      <c r="I162" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J162" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K162" t="s">
+        <v>648</v>
+      </c>
+      <c r="L162">
+        <v>7752</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>390</v>
+      </c>
+      <c r="B163" t="s">
+        <v>391</v>
+      </c>
+      <c r="C163" t="s">
+        <v>534</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="4"/>
+        <v>CASTRO</v>
+      </c>
+      <c r="E163" t="str">
+        <f t="shared" si="5"/>
+        <v>RAMIREZ JOSE</v>
+      </c>
+      <c r="G163" t="s">
+        <v>652</v>
+      </c>
+      <c r="H163" t="s">
+        <v>422</v>
+      </c>
+      <c r="I163" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J163" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K163" t="s">
+        <v>648</v>
+      </c>
+      <c r="L163">
+        <v>3395.06</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>83</v>
+      </c>
+      <c r="B164" t="s">
+        <v>84</v>
+      </c>
+      <c r="C164" t="s">
+        <v>457</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="4"/>
+        <v>FIGUEROA</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="5"/>
+        <v>RAMIREZ KENIA</v>
+      </c>
+      <c r="G164" t="s">
+        <v>654</v>
+      </c>
+      <c r="H164" t="s">
+        <v>422</v>
+      </c>
+      <c r="I164" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J164" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K164" t="s">
+        <v>648</v>
+      </c>
+      <c r="L164">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>394</v>
+      </c>
+      <c r="B165" t="s">
+        <v>395</v>
+      </c>
+      <c r="C165" t="s">
+        <v>536</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="4"/>
+        <v>CABRERA</v>
+      </c>
+      <c r="E165" t="str">
+        <f t="shared" si="5"/>
+        <v>RAMOS JORGE</v>
+      </c>
+      <c r="G165" t="s">
+        <v>654</v>
+      </c>
+      <c r="H165" t="s">
+        <v>422</v>
+      </c>
+      <c r="I165" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J165" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K165" t="s">
+        <v>648</v>
+      </c>
+      <c r="L165">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B166" t="s">
+        <v>106</v>
+      </c>
+      <c r="C166" t="s">
+        <v>577</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="4"/>
+        <v>ARROYO</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" si="5"/>
+        <v>AGUILAR MILTON EMANUEL</v>
+      </c>
+      <c r="G166" t="s">
+        <v>659</v>
+      </c>
+      <c r="H166" t="s">
+        <v>422</v>
+      </c>
+      <c r="I166" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J166" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K166" t="s">
+        <v>649</v>
+      </c>
+      <c r="L166">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>154</v>
+      </c>
+      <c r="B167" t="s">
+        <v>155</v>
+      </c>
+      <c r="C167" t="s">
+        <v>599</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="4"/>
+        <v>CATALAN</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="5"/>
+        <v>DE LA CRUZ</v>
+      </c>
+      <c r="G167" t="s">
+        <v>664</v>
+      </c>
+      <c r="H167" t="s">
+        <v>422</v>
+      </c>
+      <c r="I167" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J167" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K167" t="s">
+        <v>649</v>
+      </c>
+      <c r="L167">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>160</v>
+      </c>
+      <c r="B168" t="s">
+        <v>161</v>
+      </c>
+      <c r="C168" t="s">
+        <v>600</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="4"/>
+        <v>ANAYA</v>
+      </c>
+      <c r="E168" t="str">
+        <f t="shared" si="5"/>
+        <v>DEL CARMEN NAPOLEON</v>
+      </c>
+      <c r="G168" t="s">
+        <v>652</v>
+      </c>
+      <c r="H168" t="s">
+        <v>422</v>
+      </c>
+      <c r="I168" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J168" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K168" t="s">
+        <v>649</v>
+      </c>
+      <c r="L168">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>162</v>
+      </c>
+      <c r="B169" t="s">
+        <v>163</v>
+      </c>
+      <c r="C169" t="s">
+        <v>601</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="4"/>
+        <v>HERNANDEZ</v>
+      </c>
+      <c r="E169" t="str">
+        <f t="shared" si="5"/>
+        <v>DIMAS JONATHAN SADAD</v>
+      </c>
+      <c r="G169" t="s">
+        <v>653</v>
+      </c>
+      <c r="H169" t="s">
+        <v>422</v>
+      </c>
+      <c r="I169" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J169" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K169" t="s">
+        <v>649</v>
+      </c>
+      <c r="L169">
+        <v>7287</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>212</v>
+      </c>
+      <c r="B170" t="s">
+        <v>213</v>
+      </c>
+      <c r="C170" t="s">
+        <v>564</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="4"/>
+        <v>HERNANDEZ</v>
+      </c>
+      <c r="E170" t="str">
+        <f t="shared" si="5"/>
+        <v>PEREZ LUIS MANUEL</v>
+      </c>
+      <c r="G170" t="s">
+        <v>659</v>
+      </c>
+      <c r="H170" t="s">
+        <v>422</v>
+      </c>
+      <c r="I170" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J170" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K170" t="s">
+        <v>649</v>
+      </c>
+      <c r="L170">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>230</v>
+      </c>
+      <c r="B171" t="s">
+        <v>231</v>
+      </c>
+      <c r="C171" t="s">
+        <v>628</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="4"/>
+        <v>ESCALERA</v>
+      </c>
+      <c r="E171" t="str">
+        <f t="shared" si="5"/>
+        <v>RENDON MARCO ANTONIO</v>
+      </c>
+      <c r="G171" t="s">
+        <v>653</v>
+      </c>
+      <c r="H171" t="s">
+        <v>422</v>
+      </c>
+      <c r="I171" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J171" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K171" t="s">
+        <v>649</v>
+      </c>
+      <c r="L171">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>232</v>
+      </c>
+      <c r="B172" t="s">
+        <v>233</v>
+      </c>
+      <c r="C172" t="s">
+        <v>630</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="4"/>
+        <v>GOMEZ</v>
+      </c>
+      <c r="E172" t="str">
+        <f t="shared" si="5"/>
+        <v>RIOS JOSE LUIS</v>
+      </c>
+      <c r="G172" t="s">
+        <v>656</v>
+      </c>
+      <c r="H172" t="s">
+        <v>422</v>
+      </c>
+      <c r="I172" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J172" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K172" t="s">
+        <v>649</v>
+      </c>
+      <c r="L172">
+        <v>7287</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>240</v>
+      </c>
+      <c r="B173" t="s">
+        <v>241</v>
+      </c>
+      <c r="C173" t="s">
+        <v>634</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="4"/>
+        <v>BELLO</v>
+      </c>
+      <c r="E173" t="str">
+        <f t="shared" si="5"/>
+        <v>VENTURA ANA MARIA</v>
+      </c>
+      <c r="G173" t="s">
+        <v>652</v>
+      </c>
+      <c r="H173" t="s">
+        <v>422</v>
+      </c>
+      <c r="I173" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J173" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K173" t="s">
+        <v>649</v>
+      </c>
+      <c r="L173">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>290</v>
+      </c>
+      <c r="B174" t="s">
+        <v>291</v>
+      </c>
+      <c r="C174" t="s">
+        <v>485</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="4"/>
+        <v>CASTRO</v>
+      </c>
+      <c r="E174" t="str">
+        <f t="shared" si="5"/>
+        <v>FLORES RENAN</v>
+      </c>
+      <c r="G174" t="s">
+        <v>652</v>
+      </c>
+      <c r="H174" t="s">
+        <v>422</v>
+      </c>
+      <c r="I174" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J174" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K174" t="s">
+        <v>649</v>
+      </c>
+      <c r="L174">
+        <v>9950</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>314</v>
+      </c>
+      <c r="B175" t="s">
+        <v>315</v>
+      </c>
+      <c r="C175" t="s">
+        <v>497</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="4"/>
+        <v>TECUAPA</v>
+      </c>
+      <c r="E175" t="str">
+        <f t="shared" si="5"/>
+        <v>MUÑOZ MACRINA</v>
+      </c>
+      <c r="G175" t="s">
+        <v>667</v>
+      </c>
+      <c r="H175" t="s">
+        <v>422</v>
+      </c>
+      <c r="I175" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J175" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K175" t="s">
+        <v>649</v>
+      </c>
+      <c r="L175">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>326</v>
+      </c>
+      <c r="B176" t="s">
+        <v>327</v>
+      </c>
+      <c r="C176" t="s">
+        <v>502</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="4"/>
+        <v>SALMERON</v>
+      </c>
+      <c r="E176" t="str">
+        <f t="shared" si="5"/>
+        <v>NAVA OSIEL</v>
+      </c>
+      <c r="G176" t="s">
+        <v>658</v>
+      </c>
+      <c r="H176" t="s">
+        <v>422</v>
+      </c>
+      <c r="I176" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J176" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K176" t="s">
+        <v>649</v>
+      </c>
+      <c r="L176">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>338</v>
+      </c>
+      <c r="B177" t="s">
+        <v>339</v>
+      </c>
+      <c r="C177" t="s">
+        <v>508</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="4"/>
+        <v>AGUERO</v>
+      </c>
+      <c r="E177" t="str">
+        <f t="shared" si="5"/>
+        <v>ORTIZ IRMA</v>
+      </c>
+      <c r="G177" t="s">
+        <v>670</v>
+      </c>
+      <c r="H177" t="s">
+        <v>422</v>
+      </c>
+      <c r="I177" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J177" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K177" t="s">
+        <v>649</v>
+      </c>
+      <c r="L177">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>344</v>
+      </c>
+      <c r="B178" t="s">
+        <v>345</v>
+      </c>
+      <c r="C178" t="s">
+        <v>511</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="4"/>
+        <v>RODRIGUEZ</v>
+      </c>
+      <c r="E178" t="str">
+        <f t="shared" si="5"/>
+        <v>PADILLA DANIEL</v>
+      </c>
+      <c r="G178" t="s">
+        <v>661</v>
+      </c>
+      <c r="H178" t="s">
+        <v>422</v>
+      </c>
+      <c r="I178" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J178" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K178" t="s">
+        <v>649</v>
+      </c>
+      <c r="L178">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>368</v>
+      </c>
+      <c r="B179" t="s">
+        <v>369</v>
+      </c>
+      <c r="C179" t="s">
+        <v>523</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="4"/>
+        <v>ALCARAZ</v>
+      </c>
+      <c r="E179" t="str">
+        <f t="shared" si="5"/>
+        <v>PATOLZIN FAUSTINO</v>
+      </c>
+      <c r="G179" t="s">
+        <v>664</v>
+      </c>
+      <c r="H179" t="s">
+        <v>422</v>
+      </c>
+      <c r="I179" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J179" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K179" t="s">
+        <v>649</v>
+      </c>
+      <c r="L179">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>404</v>
+      </c>
+      <c r="B180" t="s">
+        <v>405</v>
+      </c>
+      <c r="C180" t="s">
+        <v>541</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="4"/>
+        <v>TINOCO</v>
+      </c>
+      <c r="E180" t="str">
+        <f t="shared" si="5"/>
+        <v>REYNA MERCED</v>
+      </c>
+      <c r="G180" t="s">
+        <v>659</v>
+      </c>
+      <c r="H180" t="s">
+        <v>422</v>
+      </c>
+      <c r="I180" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J180" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K180" t="s">
+        <v>649</v>
+      </c>
+      <c r="L180">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>115</v>
+      </c>
+      <c r="B181" t="s">
+        <v>116</v>
+      </c>
+      <c r="C181" t="s">
+        <v>581</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="4"/>
+        <v>HERNANDEZ</v>
+      </c>
+      <c r="E181" t="str">
+        <f t="shared" si="5"/>
+        <v>ASTUDILLO MAURICIO ADRIAN</v>
+      </c>
+      <c r="G181" t="s">
+        <v>659</v>
+      </c>
+      <c r="H181" t="s">
+        <v>422</v>
+      </c>
+      <c r="I181" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J181" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K181" t="s">
+        <v>649</v>
+      </c>
+      <c r="L181">
+        <v>7287</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>168</v>
+      </c>
+      <c r="B182" t="s">
+        <v>169</v>
+      </c>
+      <c r="C182" t="s">
+        <v>640</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="4"/>
+        <v>ADAME</v>
+      </c>
+      <c r="E182" t="str">
+        <f t="shared" si="5"/>
+        <v>DEL CARMEN ALFREDO</v>
+      </c>
+      <c r="G182" t="s">
+        <v>662</v>
+      </c>
+      <c r="H182" t="s">
+        <v>422</v>
+      </c>
+      <c r="I182" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J182" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K182" t="s">
+        <v>649</v>
+      </c>
+      <c r="L182">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>282</v>
+      </c>
+      <c r="B183" t="s">
+        <v>283</v>
+      </c>
+      <c r="C183" t="s">
+        <v>481</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="4"/>
+        <v>VEGA</v>
+      </c>
+      <c r="E183" t="str">
+        <f t="shared" si="5"/>
+        <v>ESTRADA MARIA</v>
+      </c>
+      <c r="G183" t="s">
+        <v>653</v>
+      </c>
+      <c r="H183" t="s">
+        <v>422</v>
+      </c>
+      <c r="I183" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J183" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K183" t="s">
+        <v>649</v>
+      </c>
+      <c r="L183">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>79</v>
+      </c>
+      <c r="B184" t="s">
+        <v>80</v>
+      </c>
+      <c r="C184" t="s">
+        <v>455</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="4"/>
+        <v>SEVILLA</v>
+      </c>
+      <c r="E184" t="str">
+        <f t="shared" si="5"/>
+        <v>NAVA LUIS</v>
+      </c>
+      <c r="G184" t="s">
+        <v>652</v>
+      </c>
+      <c r="H184" t="s">
+        <v>422</v>
+      </c>
+      <c r="I184" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J184" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K184" t="s">
+        <v>649</v>
+      </c>
+      <c r="L184">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>370</v>
+      </c>
+      <c r="B185" t="s">
+        <v>371</v>
+      </c>
+      <c r="C185" t="s">
+        <v>524</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="4"/>
+        <v>RODRIGUEZ</v>
+      </c>
+      <c r="E185" t="str">
+        <f t="shared" si="5"/>
+        <v>PERALTA LEYDI</v>
+      </c>
+      <c r="G185" t="s">
+        <v>652</v>
+      </c>
+      <c r="H185" t="s">
+        <v>422</v>
+      </c>
+      <c r="I185" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J185" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K185" t="s">
+        <v>649</v>
+      </c>
+      <c r="L185">
+        <v>7287</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>382</v>
+      </c>
+      <c r="B186" t="s">
+        <v>383</v>
+      </c>
+      <c r="C186" t="s">
+        <v>530</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="4"/>
+        <v>FIERRO</v>
+      </c>
+      <c r="E186" t="str">
+        <f t="shared" si="5"/>
+        <v>RADILLA OMAR</v>
+      </c>
+      <c r="G186" t="s">
+        <v>652</v>
+      </c>
+      <c r="H186" t="s">
+        <v>422</v>
+      </c>
+      <c r="I186" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J186" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K186" t="s">
+        <v>649</v>
+      </c>
+      <c r="L186">
+        <v>7287</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>123</v>
+      </c>
+      <c r="B187" t="s">
+        <v>124</v>
+      </c>
+      <c r="C187" t="s">
+        <v>585</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="4"/>
+        <v>SOTELO</v>
+      </c>
+      <c r="E187" t="str">
+        <f t="shared" si="5"/>
+        <v>BAUTISTA MARIADEL CARMEN</v>
+      </c>
+      <c r="G187" t="s">
+        <v>656</v>
+      </c>
+      <c r="H187" t="s">
+        <v>422</v>
+      </c>
+      <c r="I187" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J187" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K187" t="s">
+        <v>650</v>
+      </c>
+      <c r="L187">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>178</v>
+      </c>
+      <c r="B188" t="s">
+        <v>179</v>
+      </c>
+      <c r="C188" t="s">
+        <v>607</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="4"/>
+        <v>CLAVEL</v>
+      </c>
+      <c r="E188" t="str">
+        <f t="shared" si="5"/>
+        <v>FABIAN VICTOR HUGO</v>
+      </c>
+      <c r="G188" t="s">
+        <v>654</v>
+      </c>
+      <c r="H188" t="s">
+        <v>422</v>
+      </c>
+      <c r="I188" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J188" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K188" t="s">
+        <v>650</v>
+      </c>
+      <c r="L188">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>180</v>
+      </c>
+      <c r="B189" t="s">
+        <v>181</v>
+      </c>
+      <c r="C189" t="s">
+        <v>608</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="4"/>
+        <v>CARBAJAL</v>
+      </c>
+      <c r="E189" t="str">
+        <f t="shared" si="5"/>
+        <v>MOLINA LIDIA ISABEL</v>
+      </c>
+      <c r="G189" t="s">
+        <v>659</v>
+      </c>
+      <c r="H189" t="s">
+        <v>422</v>
+      </c>
+      <c r="I189" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J189" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K189" t="s">
+        <v>650</v>
+      </c>
+      <c r="L189">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>184</v>
+      </c>
+      <c r="B190" t="s">
+        <v>185</v>
+      </c>
+      <c r="C190" t="s">
+        <v>609</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" si="4"/>
+        <v>CASTAÑON</v>
+      </c>
+      <c r="E190" t="str">
+        <f t="shared" si="5"/>
+        <v>MONTERO JUANA YASMIN</v>
+      </c>
+      <c r="G190" t="s">
+        <v>666</v>
+      </c>
+      <c r="H190" t="s">
+        <v>422</v>
+      </c>
+      <c r="I190" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J190" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K190" t="s">
+        <v>650</v>
+      </c>
+      <c r="L190">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>224</v>
+      </c>
+      <c r="B191" t="s">
+        <v>225</v>
+      </c>
+      <c r="C191" t="s">
+        <v>626</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="4"/>
+        <v>CASTRO</v>
+      </c>
+      <c r="E191" t="str">
+        <f t="shared" si="5"/>
+        <v>RAMIREZ JOSE LUIS</v>
+      </c>
+      <c r="G191" t="s">
+        <v>653</v>
+      </c>
+      <c r="H191" t="s">
+        <v>422</v>
+      </c>
+      <c r="I191" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J191" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K191" t="s">
+        <v>650</v>
+      </c>
+      <c r="L191">
+        <v>7192.18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>262</v>
+      </c>
+      <c r="B192" t="s">
+        <v>263</v>
+      </c>
+      <c r="C192" t="s">
+        <v>470</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" si="4"/>
+        <v>ROSAS</v>
+      </c>
+      <c r="E192" t="str">
+        <f t="shared" si="5"/>
+        <v>DIAZ JACOB</v>
+      </c>
+      <c r="G192" t="s">
+        <v>659</v>
+      </c>
+      <c r="H192" t="s">
+        <v>422</v>
+      </c>
+      <c r="I192" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J192" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K192" t="s">
+        <v>650</v>
+      </c>
+      <c r="L192">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>334</v>
+      </c>
+      <c r="B193" t="s">
+        <v>335</v>
+      </c>
+      <c r="C193" t="s">
+        <v>506</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" si="4"/>
+        <v>ACUÑA</v>
+      </c>
+      <c r="E193" t="str">
+        <f t="shared" si="5"/>
+        <v>OLIVARES AMADO</v>
+      </c>
+      <c r="G193" t="s">
+        <v>664</v>
+      </c>
+      <c r="H193" t="s">
+        <v>422</v>
+      </c>
+      <c r="I193" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J193" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K193" t="s">
+        <v>650</v>
+      </c>
+      <c r="L193">
+        <v>7952</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>350</v>
+      </c>
+      <c r="B194" t="s">
+        <v>351</v>
+      </c>
+      <c r="C194" t="s">
+        <v>514</v>
+      </c>
+      <c r="D194" t="str">
+        <f t="shared" si="4"/>
+        <v>GARCIA</v>
+      </c>
+      <c r="E194" t="str">
+        <f t="shared" si="5"/>
+        <v>PALACIOS JAVIER</v>
+      </c>
+      <c r="G194" t="s">
+        <v>670</v>
+      </c>
+      <c r="H194" t="s">
+        <v>422</v>
+      </c>
+      <c r="I194" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J194" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K194" t="s">
+        <v>650</v>
+      </c>
+      <c r="L194">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>356</v>
+      </c>
+      <c r="B195" t="s">
+        <v>357</v>
+      </c>
+      <c r="C195" t="s">
+        <v>517</v>
+      </c>
+      <c r="D195" t="str">
+        <f t="shared" ref="D195:D226" si="6">LEFT(C195,(FIND(" ", C195,1)-1))</f>
+        <v>FLORES</v>
+      </c>
+      <c r="E195" t="str">
+        <f t="shared" ref="E195:E226" si="7">MID(C195,FIND(" ",C195)+1,256)</f>
+        <v>PALMA RITA</v>
+      </c>
+      <c r="G195" t="s">
+        <v>667</v>
+      </c>
+      <c r="H195" t="s">
+        <v>422</v>
+      </c>
+      <c r="I195" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J195" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K195" t="s">
+        <v>650</v>
+      </c>
+      <c r="L195">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>406</v>
+      </c>
+      <c r="B196" t="s">
+        <v>407</v>
+      </c>
+      <c r="C196" t="s">
+        <v>542</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" si="6"/>
+        <v>SALVADOR</v>
+      </c>
+      <c r="E196" t="str">
+        <f t="shared" si="7"/>
+        <v>RIAÑOS FERNANDO</v>
+      </c>
+      <c r="G196" t="s">
+        <v>655</v>
+      </c>
+      <c r="H196" t="s">
+        <v>422</v>
+      </c>
+      <c r="I196" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J196" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K196" t="s">
+        <v>650</v>
+      </c>
+      <c r="L196">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>103</v>
+      </c>
+      <c r="B197" t="s">
+        <v>104</v>
+      </c>
+      <c r="C197" t="s">
+        <v>576</v>
+      </c>
+      <c r="D197" t="str">
+        <f t="shared" si="6"/>
+        <v>CARRANZA</v>
+      </c>
+      <c r="E197" t="str">
+        <f t="shared" si="7"/>
+        <v>AGUERO RAUL ADALID</v>
+      </c>
+      <c r="G197" t="s">
+        <v>668</v>
+      </c>
+      <c r="H197" t="s">
+        <v>422</v>
+      </c>
+      <c r="I197" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J197" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K197" t="s">
+        <v>650</v>
+      </c>
+      <c r="L197">
+        <v>11484</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>113</v>
+      </c>
+      <c r="B198" t="s">
+        <v>114</v>
+      </c>
+      <c r="C198" t="s">
+        <v>732</v>
+      </c>
+      <c r="D198" t="str">
+        <f t="shared" si="6"/>
+        <v>SUAREZ</v>
+      </c>
+      <c r="E198" t="str">
+        <f t="shared" si="7"/>
+        <v>ARROYO LAURA</v>
+      </c>
+      <c r="G198" t="s">
+        <v>652</v>
+      </c>
+      <c r="H198" t="s">
+        <v>422</v>
+      </c>
+      <c r="I198" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J198" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K198" t="s">
+        <v>650</v>
+      </c>
+      <c r="L198">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>196</v>
+      </c>
+      <c r="B199" t="s">
+        <v>197</v>
+      </c>
+      <c r="C199" t="s">
+        <v>613</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" si="6"/>
+        <v>GLASE</v>
+      </c>
+      <c r="E199" t="str">
+        <f t="shared" si="7"/>
+        <v>ORTIZ MARIA TERESA</v>
+      </c>
+      <c r="G199" t="s">
+        <v>671</v>
+      </c>
+      <c r="H199" t="s">
+        <v>422</v>
+      </c>
+      <c r="I199" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J199" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K199" t="s">
+        <v>650</v>
+      </c>
+      <c r="L199">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>228</v>
+      </c>
+      <c r="B200" t="s">
+        <v>229</v>
+      </c>
+      <c r="C200" t="s">
+        <v>627</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" si="6"/>
+        <v>CABRERA</v>
+      </c>
+      <c r="E200" t="str">
+        <f t="shared" si="7"/>
+        <v>RAMOS JORGE ALBERTO</v>
+      </c>
+      <c r="G200" t="s">
+        <v>672</v>
+      </c>
+      <c r="H200" t="s">
+        <v>422</v>
+      </c>
+      <c r="I200" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J200" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K200" t="s">
+        <v>650</v>
+      </c>
+      <c r="L200">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>280</v>
+      </c>
+      <c r="B201" t="s">
+        <v>281</v>
+      </c>
+      <c r="C201" t="s">
+        <v>480</v>
+      </c>
+      <c r="D201" t="str">
+        <f t="shared" si="6"/>
+        <v>RIVERO</v>
+      </c>
+      <c r="E201" t="str">
+        <f t="shared" si="7"/>
+        <v>ESTRADA MIRIAM</v>
+      </c>
+      <c r="G201" t="s">
+        <v>659</v>
+      </c>
+      <c r="H201" t="s">
+        <v>422</v>
+      </c>
+      <c r="I201" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J201" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K201" t="s">
+        <v>650</v>
+      </c>
+      <c r="L201">
+        <v>20004.7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>354</v>
+      </c>
+      <c r="B202" t="s">
+        <v>355</v>
+      </c>
+      <c r="C202" t="s">
+        <v>516</v>
+      </c>
+      <c r="D202" t="str">
+        <f t="shared" si="6"/>
+        <v>DIAZ</v>
+      </c>
+      <c r="E202" t="str">
+        <f t="shared" si="7"/>
+        <v>PALMA LINDA</v>
+      </c>
+      <c r="G202" t="s">
+        <v>652</v>
+      </c>
+      <c r="H202" t="s">
+        <v>422</v>
+      </c>
+      <c r="I202" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J202" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K202" t="s">
+        <v>650</v>
+      </c>
+      <c r="L202">
+        <v>7952</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>364</v>
+      </c>
+      <c r="B203" t="s">
+        <v>365</v>
+      </c>
+      <c r="C203" t="s">
+        <v>521</v>
+      </c>
+      <c r="D203" t="str">
+        <f t="shared" si="6"/>
+        <v>SALAZAR</v>
+      </c>
+      <c r="E203" t="str">
+        <f t="shared" si="7"/>
+        <v>PASTRANA ROBERTO</v>
+      </c>
+      <c r="G203" t="s">
+        <v>652</v>
+      </c>
+      <c r="H203" t="s">
+        <v>426</v>
+      </c>
+      <c r="I203" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J203" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K203" t="s">
+        <v>644</v>
+      </c>
+      <c r="L203">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>81</v>
+      </c>
+      <c r="B204" t="s">
+        <v>82</v>
+      </c>
+      <c r="C204" t="s">
+        <v>456</v>
+      </c>
+      <c r="D204" t="str">
+        <f t="shared" si="6"/>
+        <v>HERNANDEZ</v>
+      </c>
+      <c r="E204" t="str">
+        <f t="shared" si="7"/>
+        <v>PEREZ LUIS</v>
+      </c>
+      <c r="G204" t="s">
+        <v>653</v>
+      </c>
+      <c r="H204" t="s">
+        <v>422</v>
+      </c>
+      <c r="I204" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J204" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K204" t="s">
+        <v>650</v>
+      </c>
+      <c r="L204">
+        <v>8624</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>378</v>
+      </c>
+      <c r="B205" t="s">
+        <v>379</v>
+      </c>
+      <c r="C205" t="s">
+        <v>733</v>
+      </c>
+      <c r="D205" t="str">
+        <f t="shared" si="6"/>
+        <v>NIETO</v>
+      </c>
+      <c r="E205" t="str">
+        <f t="shared" si="7"/>
+        <v>LUZ QUEVEDO</v>
+      </c>
+      <c r="G205" t="s">
+        <v>654</v>
+      </c>
+      <c r="H205" t="s">
+        <v>426</v>
+      </c>
+      <c r="I205" s="1">
+        <v>40360</v>
+      </c>
+      <c r="J205" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K205" t="s">
+        <v>644</v>
+      </c>
+      <c r="L205">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>414</v>
+      </c>
+      <c r="B206" t="s">
+        <v>415</v>
+      </c>
+      <c r="C206" t="s">
+        <v>546</v>
+      </c>
+      <c r="D206" t="str">
+        <f t="shared" si="6"/>
+        <v>ALBARRAN</v>
+      </c>
+      <c r="E206" t="str">
+        <f t="shared" si="7"/>
+        <v>MARTINEZ DELFINO</v>
+      </c>
+      <c r="G206" t="s">
+        <v>654</v>
+      </c>
+      <c r="H206" t="s">
+        <v>422</v>
+      </c>
+      <c r="I206" s="1">
+        <v>40375</v>
+      </c>
+      <c r="J206" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K206" t="s">
+        <v>645</v>
+      </c>
+      <c r="L206">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>75</v>
+      </c>
+      <c r="B207" t="s">
+        <v>76</v>
+      </c>
+      <c r="C207" t="s">
+        <v>571</v>
+      </c>
+      <c r="D207" t="str">
+        <f t="shared" si="6"/>
+        <v>CA¥EDO</v>
+      </c>
+      <c r="E207" t="str">
+        <f t="shared" si="7"/>
+        <v>ACOSTA MARIO ENRIQUE</v>
+      </c>
+      <c r="G207" t="s">
+        <v>654</v>
+      </c>
+      <c r="H207" t="s">
+        <v>422</v>
+      </c>
+      <c r="I207" s="1">
+        <v>40391</v>
+      </c>
+      <c r="J207" s="1">
+        <v>40390</v>
+      </c>
+      <c r="K207" t="s">
+        <v>424</v>
+      </c>
+      <c r="L207">
+        <v>8774</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>75</v>
+      </c>
+      <c r="B208" t="s">
+        <v>76</v>
+      </c>
+      <c r="C208" t="s">
+        <v>562</v>
+      </c>
+      <c r="D208" t="str">
+        <f t="shared" si="6"/>
+        <v>ROJANO</v>
+      </c>
+      <c r="E208" t="str">
+        <f t="shared" si="7"/>
+        <v>HERNANDEZ LUIS ALBERTO</v>
+      </c>
+      <c r="G208" t="s">
+        <v>659</v>
+      </c>
+      <c r="H208" t="s">
+        <v>422</v>
+      </c>
+      <c r="I208" s="1">
+        <v>40422</v>
+      </c>
+      <c r="J208" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K208" t="s">
+        <v>424</v>
+      </c>
+      <c r="L208">
+        <v>9687.2000000000007</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>71</v>
+      </c>
+      <c r="B209" t="s">
+        <v>72</v>
+      </c>
+      <c r="C209" t="s">
+        <v>453</v>
+      </c>
+      <c r="D209" t="str">
+        <f t="shared" si="6"/>
+        <v>RIVERA</v>
+      </c>
+      <c r="E209" t="str">
+        <f t="shared" si="7"/>
+        <v>BARRERA GUILLERMO</v>
+      </c>
+      <c r="G209" t="s">
+        <v>655</v>
+      </c>
+      <c r="H209" t="s">
+        <v>422</v>
+      </c>
+      <c r="I209" s="1">
+        <v>40422</v>
+      </c>
+      <c r="J209" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K209" t="s">
+        <v>424</v>
+      </c>
+      <c r="L209">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>77</v>
+      </c>
+      <c r="B210" t="s">
+        <v>78</v>
+      </c>
+      <c r="C210" t="s">
+        <v>563</v>
+      </c>
+      <c r="D210" t="str">
+        <f t="shared" si="6"/>
+        <v>SEVILLA</v>
+      </c>
+      <c r="E210" t="str">
+        <f t="shared" si="7"/>
+        <v>NAVA LUIS ARMANDO</v>
+      </c>
+      <c r="G210" t="s">
+        <v>656</v>
+      </c>
+      <c r="H210" t="s">
+        <v>422</v>
+      </c>
+      <c r="I210" s="1">
+        <v>40422</v>
+      </c>
+      <c r="J210" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K210" t="s">
+        <v>645</v>
+      </c>
+      <c r="L210">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>73</v>
+      </c>
+      <c r="B211" t="s">
+        <v>74</v>
+      </c>
+      <c r="C211" t="s">
+        <v>454</v>
+      </c>
+      <c r="D211" t="str">
+        <f t="shared" si="6"/>
+        <v>ARCOS</v>
+      </c>
+      <c r="E211" t="str">
+        <f t="shared" si="7"/>
+        <v>CATALAN LEONEL</v>
+      </c>
+      <c r="G211" t="s">
+        <v>656</v>
+      </c>
+      <c r="H211" t="s">
+        <v>422</v>
+      </c>
+      <c r="I211" s="1">
+        <v>40422</v>
+      </c>
+      <c r="J211" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K211" t="s">
+        <v>648</v>
+      </c>
+      <c r="L211">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>83</v>
+      </c>
+      <c r="B212" t="s">
+        <v>84</v>
+      </c>
+      <c r="C212" t="s">
+        <v>566</v>
+      </c>
+      <c r="D212" t="str">
+        <f t="shared" si="6"/>
+        <v>GARNICA</v>
+      </c>
+      <c r="E212" t="str">
+        <f t="shared" si="7"/>
+        <v>SAN ROMAN YUNUEN</v>
+      </c>
+      <c r="G212" t="s">
+        <v>667</v>
+      </c>
+      <c r="H212" t="s">
+        <v>422</v>
+      </c>
+      <c r="I212" s="1">
+        <v>40422</v>
+      </c>
+      <c r="J212" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K212" t="s">
+        <v>648</v>
+      </c>
+      <c r="L212">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>91</v>
+      </c>
+      <c r="B213" t="s">
+        <v>92</v>
+      </c>
+      <c r="C213" t="s">
+        <v>562</v>
+      </c>
+      <c r="D213" t="str">
+        <f t="shared" si="6"/>
+        <v>ROJANO</v>
+      </c>
+      <c r="E213" t="str">
+        <f t="shared" si="7"/>
+        <v>HERNANDEZ LUIS ALBERTO</v>
+      </c>
+      <c r="G213" t="s">
+        <v>667</v>
+      </c>
+      <c r="H213" t="s">
+        <v>422</v>
+      </c>
+      <c r="I213" s="1">
+        <v>40422</v>
+      </c>
+      <c r="J213" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K213" t="s">
+        <v>648</v>
+      </c>
+      <c r="L213">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>93</v>
+      </c>
+      <c r="B214" t="s">
+        <v>94</v>
+      </c>
+      <c r="C214" t="s">
+        <v>731</v>
+      </c>
+      <c r="D214" t="str">
+        <f t="shared" si="6"/>
+        <v>DEJESUS</v>
+      </c>
+      <c r="E214" t="str">
+        <f t="shared" si="7"/>
+        <v>CRISOSTOMO LORENA</v>
+      </c>
+      <c r="G214" t="s">
+        <v>658</v>
+      </c>
+      <c r="H214" t="s">
+        <v>422</v>
+      </c>
+      <c r="I214" s="1">
+        <v>40422</v>
+      </c>
+      <c r="J214" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K214" t="s">
+        <v>648</v>
+      </c>
+      <c r="L214">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>89</v>
+      </c>
+      <c r="B215" t="s">
+        <v>90</v>
+      </c>
+      <c r="C215" t="s">
+        <v>635</v>
+      </c>
+      <c r="D215" t="str">
+        <f t="shared" si="6"/>
+        <v>ROJANO</v>
+      </c>
+      <c r="E215" t="str">
+        <f t="shared" si="7"/>
+        <v>HERNANDEZ LUIS ALBERTO ABRIL</v>
+      </c>
+      <c r="G215" t="s">
+        <v>654</v>
+      </c>
+      <c r="H215" t="s">
+        <v>422</v>
+      </c>
+      <c r="I215" s="1">
+        <v>40422</v>
+      </c>
+      <c r="J215" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K215" t="s">
+        <v>648</v>
+      </c>
+      <c r="L215">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>79</v>
+      </c>
+      <c r="B216" t="s">
+        <v>80</v>
+      </c>
+      <c r="C216" t="s">
+        <v>564</v>
+      </c>
+      <c r="D216" t="str">
+        <f t="shared" si="6"/>
+        <v>HERNANDEZ</v>
+      </c>
+      <c r="E216" t="str">
+        <f t="shared" si="7"/>
+        <v>PEREZ LUIS MANUEL</v>
+      </c>
+      <c r="G216" t="s">
+        <v>652</v>
+      </c>
+      <c r="H216" t="s">
+        <v>422</v>
+      </c>
+      <c r="I216" s="1">
+        <v>40422</v>
+      </c>
+      <c r="J216" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K216" t="s">
+        <v>649</v>
+      </c>
+      <c r="L216">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>81</v>
+      </c>
+      <c r="B217" t="s">
+        <v>82</v>
+      </c>
+      <c r="C217" t="s">
+        <v>565</v>
+      </c>
+      <c r="D217" t="str">
+        <f t="shared" si="6"/>
+        <v>FIGUEROA</v>
+      </c>
+      <c r="E217" t="str">
+        <f t="shared" si="7"/>
+        <v>RAMIREZ KENIA GUADALUPE</v>
+      </c>
+      <c r="G217" t="s">
+        <v>671</v>
+      </c>
+      <c r="H217" t="s">
+        <v>422</v>
+      </c>
+      <c r="I217" s="1">
+        <v>40422</v>
+      </c>
+      <c r="J217" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K217" t="s">
+        <v>650</v>
+      </c>
+      <c r="L217">
+        <v>11624</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>85</v>
+      </c>
+      <c r="B218" t="s">
+        <v>86</v>
+      </c>
+      <c r="C218" t="s">
+        <v>567</v>
+      </c>
+      <c r="D218" t="str">
+        <f t="shared" si="6"/>
+        <v>CASILLAS</v>
+      </c>
+      <c r="E218" t="str">
+        <f t="shared" si="7"/>
+        <v>SOLANO CESAR JESUS</v>
+      </c>
+      <c r="G218" t="s">
+        <v>671</v>
+      </c>
+      <c r="H218" t="s">
+        <v>422</v>
+      </c>
+      <c r="I218" s="1">
+        <v>40422</v>
+      </c>
+      <c r="J218" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K218" t="s">
+        <v>650</v>
+      </c>
+      <c r="L218">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>87</v>
+      </c>
+      <c r="B219" t="s">
+        <v>88</v>
+      </c>
+      <c r="C219" t="s">
+        <v>568</v>
+      </c>
+      <c r="D219" t="str">
+        <f t="shared" si="6"/>
+        <v>CUEVAS</v>
+      </c>
+      <c r="E219" t="str">
+        <f t="shared" si="7"/>
+        <v>VILLANUEVA OLGA MADELINE</v>
+      </c>
+      <c r="G219" t="s">
+        <v>661</v>
+      </c>
+      <c r="H219" t="s">
+        <v>422</v>
+      </c>
+      <c r="I219" s="1">
+        <v>40422</v>
+      </c>
+      <c r="J219" s="1">
+        <v>40451</v>
+      </c>
+      <c r="K219" t="s">
+        <v>650</v>
+      </c>
+      <c r="L219">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>304</v>
+      </c>
+      <c r="B220" t="s">
+        <v>305</v>
+      </c>
+      <c r="C220" t="s">
+        <v>492</v>
+      </c>
+      <c r="D220" t="str">
+        <f t="shared" si="6"/>
+        <v>ALVAREZ</v>
+      </c>
+      <c r="E220" t="str">
+        <f t="shared" si="7"/>
+        <v>MORALES ALONDRA</v>
+      </c>
+      <c r="G220" t="s">
+        <v>661</v>
+      </c>
+      <c r="H220" t="s">
+        <v>426</v>
+      </c>
+      <c r="I220" s="1">
+        <v>40437</v>
+      </c>
+      <c r="J220" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K220" t="s">
+        <v>644</v>
+      </c>
+      <c r="L220">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>420</v>
+      </c>
+      <c r="B221" t="s">
+        <v>421</v>
+      </c>
+      <c r="C221" t="s">
+        <v>548</v>
+      </c>
+      <c r="D221" t="str">
+        <f t="shared" si="6"/>
+        <v>CRUZ</v>
+      </c>
+      <c r="E221" t="str">
+        <f t="shared" si="7"/>
+        <v>VAZQUEZ ALEJO</v>
+      </c>
+      <c r="G221" t="s">
+        <v>661</v>
+      </c>
+      <c r="H221" t="s">
+        <v>422</v>
+      </c>
+      <c r="I221" s="1">
+        <v>40437</v>
+      </c>
+      <c r="J221" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K221" t="s">
+        <v>424</v>
+      </c>
+      <c r="L221">
+        <v>9143</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>250</v>
+      </c>
+      <c r="B222" t="s">
+        <v>251</v>
+      </c>
+      <c r="C222" t="s">
+        <v>464</v>
+      </c>
+      <c r="D222" t="str">
+        <f t="shared" si="6"/>
+        <v>CAMILO</v>
+      </c>
+      <c r="E222" t="str">
+        <f t="shared" si="7"/>
+        <v>CRUZ ANTONIO</v>
+      </c>
+      <c r="G222" t="s">
+        <v>657</v>
+      </c>
+      <c r="H222" t="s">
+        <v>422</v>
+      </c>
+      <c r="I222" s="1">
+        <v>40437</v>
+      </c>
+      <c r="J222" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K222" t="s">
+        <v>424</v>
+      </c>
+      <c r="L222">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>148</v>
+      </c>
+      <c r="B223" t="s">
+        <v>149</v>
+      </c>
+      <c r="C223" t="s">
+        <v>459</v>
+      </c>
+      <c r="D223" t="str">
+        <f t="shared" si="6"/>
+        <v>CORCUERA</v>
+      </c>
+      <c r="E223" t="str">
+        <f t="shared" si="7"/>
+        <v>ARZOLA OMAR</v>
+      </c>
+      <c r="G223" t="s">
+        <v>661</v>
+      </c>
+      <c r="H223" t="s">
+        <v>422</v>
+      </c>
+      <c r="I223" s="1">
+        <v>40437</v>
+      </c>
+      <c r="J223" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K223" t="s">
+        <v>424</v>
+      </c>
+      <c r="L223">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>418</v>
+      </c>
+      <c r="B224" t="s">
+        <v>419</v>
+      </c>
+      <c r="C224" t="s">
+        <v>677</v>
+      </c>
+      <c r="D224" t="str">
+        <f t="shared" si="6"/>
+        <v>RAMIREZ</v>
+      </c>
+      <c r="E224" t="str">
+        <f t="shared" si="7"/>
+        <v>LOPEZ NANCY</v>
+      </c>
+      <c r="G224" t="s">
+        <v>661</v>
+      </c>
+      <c r="H224" t="s">
+        <v>422</v>
+      </c>
+      <c r="I224" s="1">
+        <v>40437</v>
+      </c>
+      <c r="J224" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K224" t="s">
+        <v>648</v>
+      </c>
+      <c r="L224">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>416</v>
+      </c>
+      <c r="B225" t="s">
+        <v>417</v>
+      </c>
+      <c r="C225" t="s">
+        <v>547</v>
+      </c>
+      <c r="D225" t="str">
+        <f t="shared" si="6"/>
+        <v>ALIA</v>
+      </c>
+      <c r="E225" t="str">
+        <f t="shared" si="7"/>
+        <v>GOMEZ NOE</v>
+      </c>
+      <c r="G225" t="s">
+        <v>661</v>
+      </c>
+      <c r="H225" t="s">
+        <v>422</v>
+      </c>
+      <c r="I225" s="1">
+        <v>40437</v>
+      </c>
+      <c r="J225" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K225" t="s">
+        <v>649</v>
+      </c>
+      <c r="L225">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>430</v>
+      </c>
+      <c r="B226" t="s">
+        <v>431</v>
+      </c>
+      <c r="C226" t="s">
+        <v>549</v>
+      </c>
+      <c r="D226" t="str">
+        <f t="shared" si="6"/>
+        <v>BELLO</v>
+      </c>
+      <c r="E226" t="str">
+        <f t="shared" si="7"/>
+        <v>VENTURA ANA</v>
+      </c>
+      <c r="G226" t="s">
+        <v>661</v>
+      </c>
+      <c r="H226" t="s">
+        <v>422</v>
+      </c>
+      <c r="I226" s="1">
+        <v>40437</v>
+      </c>
+      <c r="J226" s="1">
+        <v>40543</v>
+      </c>
+      <c r="K226" t="s">
+        <v>649</v>
+      </c>
+      <c r="L226">
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L226" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>